--- a/Estatus NPI (Autosaved).xlsx
+++ b/Estatus NPI (Autosaved).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Vicente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GCP\Documents\GitHub\Estatus-NPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB09C9F-60F5-453D-88A2-62934BF713D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WKS" sheetId="3" r:id="rId1"/>
@@ -2010,7 +2011,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2787,7 +2788,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="496">
+  <cellXfs count="495">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3627,376 +3628,430 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="6" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="6" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4014,59 +4069,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4080,27 +4084,122 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4119,15 +4218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4137,105 +4227,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4525,7 +4523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4533,40 +4531,40 @@
       <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" style="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="75" customWidth="1"/>
-    <col min="8" max="8" width="85.5703125" style="75" customWidth="1"/>
-    <col min="9" max="9" width="84.7109375" style="75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.85546875" style="75" customWidth="1"/>
-    <col min="11" max="16384" width="18.5703125" style="75"/>
+    <col min="8" max="8" width="85.5546875" style="75" customWidth="1"/>
+    <col min="9" max="9" width="84.6640625" style="75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.88671875" style="75" customWidth="1"/>
+    <col min="11" max="16384" width="18.5546875" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="73" t="s">
         <v>161</v>
       </c>
       <c r="C1" s="74"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="76" t="s">
         <v>162</v>
       </c>
       <c r="C2" s="77"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="78" t="s">
         <v>163</v>
       </c>
       <c r="C3" s="79"/>
     </row>
-    <row r="4" spans="1:10" s="80" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="80" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -4596,16 +4594,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="366" t="s">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="324" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="372" t="s">
+      <c r="B5" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="362"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="364" t="s">
+      <c r="C5" s="369"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="372" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="24" t="s">
@@ -4617,15 +4615,15 @@
       <c r="H5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="308"/>
-      <c r="J5" s="327"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="367"/>
-      <c r="B6" s="371"/>
-      <c r="C6" s="303"/>
-      <c r="D6" s="354"/>
-      <c r="E6" s="365"/>
+      <c r="I5" s="310"/>
+      <c r="J5" s="312"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="325"/>
+      <c r="B6" s="295"/>
+      <c r="C6" s="370"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="373"/>
       <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
@@ -4635,19 +4633,19 @@
       <c r="H6" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="309"/>
-      <c r="J6" s="328"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="368" t="s">
+      <c r="I6" s="311"/>
+      <c r="J6" s="313"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="314" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="370" t="s">
+      <c r="B7" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="302"/>
-      <c r="D7" s="353"/>
-      <c r="E7" s="327" t="s">
+      <c r="C7" s="375"/>
+      <c r="D7" s="318"/>
+      <c r="E7" s="312" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -4656,38 +4654,38 @@
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="353" t="s">
+      <c r="H7" s="318" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="322"/>
-      <c r="J7" s="327"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="369"/>
-      <c r="B8" s="371"/>
-      <c r="C8" s="303"/>
-      <c r="D8" s="354"/>
-      <c r="E8" s="328"/>
+      <c r="I7" s="382"/>
+      <c r="J7" s="312"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="315"/>
+      <c r="B8" s="295"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="313"/>
       <c r="F8" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="354"/>
-      <c r="I8" s="324"/>
-      <c r="J8" s="328"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="307" t="s">
+      <c r="H8" s="298"/>
+      <c r="I8" s="383"/>
+      <c r="J8" s="313"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="297" t="s">
+      <c r="B9" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="306"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293" t="s">
+      <c r="C9" s="321"/>
+      <c r="D9" s="306"/>
+      <c r="E9" s="306" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -4696,54 +4694,54 @@
       <c r="G9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="347" t="s">
+      <c r="H9" s="337" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="310"/>
-      <c r="J9" s="293"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="307"/>
-      <c r="B10" s="297"/>
-      <c r="C10" s="306"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
+      <c r="I9" s="303"/>
+      <c r="J9" s="306"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="293"/>
+      <c r="B10" s="333"/>
+      <c r="C10" s="321"/>
+      <c r="D10" s="306"/>
+      <c r="E10" s="306"/>
       <c r="F10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="347"/>
-      <c r="I10" s="311"/>
-      <c r="J10" s="293"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="307"/>
-      <c r="B11" s="297"/>
-      <c r="C11" s="306"/>
-      <c r="D11" s="293"/>
-      <c r="E11" s="293"/>
+      <c r="H10" s="337"/>
+      <c r="I10" s="304"/>
+      <c r="J10" s="306"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="293"/>
+      <c r="B11" s="333"/>
+      <c r="C11" s="321"/>
+      <c r="D11" s="306"/>
+      <c r="E11" s="306"/>
       <c r="F11" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="347"/>
-      <c r="I11" s="312"/>
-      <c r="J11" s="293"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="307" t="s">
+      <c r="H11" s="337"/>
+      <c r="I11" s="305"/>
+      <c r="J11" s="306"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="297" t="s">
+      <c r="B12" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="306"/>
-      <c r="D12" s="293"/>
-      <c r="E12" s="359" t="s">
+      <c r="C12" s="321"/>
+      <c r="D12" s="306"/>
+      <c r="E12" s="299" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -4752,38 +4750,38 @@
       <c r="G12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="347" t="s">
+      <c r="H12" s="337" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="310"/>
-      <c r="J12" s="293"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="307"/>
-      <c r="B13" s="297"/>
-      <c r="C13" s="306"/>
-      <c r="D13" s="293"/>
-      <c r="E13" s="360"/>
+      <c r="I12" s="303"/>
+      <c r="J12" s="306"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="293"/>
+      <c r="B13" s="333"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="306"/>
+      <c r="E13" s="301"/>
       <c r="F13" s="99" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="347"/>
-      <c r="I13" s="312"/>
-      <c r="J13" s="293"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="339" t="s">
+      <c r="H13" s="337"/>
+      <c r="I13" s="305"/>
+      <c r="J13" s="306"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="348" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="297" t="s">
+      <c r="B14" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="306"/>
-      <c r="D14" s="293"/>
-      <c r="E14" s="356" t="s">
+      <c r="C14" s="321"/>
+      <c r="D14" s="306"/>
+      <c r="E14" s="379" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="85" t="s">
@@ -4792,54 +4790,54 @@
       <c r="G14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="343" t="s">
+      <c r="H14" s="376" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="310"/>
-      <c r="J14" s="293"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="340"/>
-      <c r="B15" s="297"/>
-      <c r="C15" s="306"/>
-      <c r="D15" s="293"/>
-      <c r="E15" s="357"/>
+      <c r="I14" s="303"/>
+      <c r="J14" s="306"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="349"/>
+      <c r="B15" s="333"/>
+      <c r="C15" s="321"/>
+      <c r="D15" s="306"/>
+      <c r="E15" s="380"/>
       <c r="F15" s="90" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="355"/>
-      <c r="I15" s="311"/>
-      <c r="J15" s="293"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="341"/>
-      <c r="B16" s="297"/>
-      <c r="C16" s="306"/>
-      <c r="D16" s="293"/>
-      <c r="E16" s="358"/>
+      <c r="H15" s="377"/>
+      <c r="I15" s="304"/>
+      <c r="J15" s="306"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="350"/>
+      <c r="B16" s="333"/>
+      <c r="C16" s="321"/>
+      <c r="D16" s="306"/>
+      <c r="E16" s="381"/>
       <c r="F16" s="86" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="344"/>
-      <c r="I16" s="312"/>
-      <c r="J16" s="293"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="307" t="s">
+      <c r="H16" s="378"/>
+      <c r="I16" s="305"/>
+      <c r="J16" s="306"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="293" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="297" t="s">
+      <c r="B17" s="333" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="348"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="336" t="s">
+      <c r="C17" s="334"/>
+      <c r="D17" s="306"/>
+      <c r="E17" s="366" t="s">
         <v>152</v>
       </c>
       <c r="F17" s="92" t="s">
@@ -4848,86 +4846,86 @@
       <c r="G17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="347" t="s">
+      <c r="H17" s="337" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="310"/>
-      <c r="J17" s="293"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="307"/>
-      <c r="B18" s="297"/>
-      <c r="C18" s="348"/>
-      <c r="D18" s="293"/>
-      <c r="E18" s="351"/>
+      <c r="I17" s="303"/>
+      <c r="J17" s="306"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="293"/>
+      <c r="B18" s="333"/>
+      <c r="C18" s="334"/>
+      <c r="D18" s="306"/>
+      <c r="E18" s="367"/>
       <c r="F18" s="94" t="s">
         <v>140</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="347"/>
-      <c r="I18" s="311"/>
-      <c r="J18" s="293"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="307"/>
-      <c r="B19" s="297"/>
-      <c r="C19" s="348"/>
-      <c r="D19" s="293"/>
-      <c r="E19" s="351"/>
+      <c r="H18" s="337"/>
+      <c r="I18" s="304"/>
+      <c r="J18" s="306"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="293"/>
+      <c r="B19" s="333"/>
+      <c r="C19" s="334"/>
+      <c r="D19" s="306"/>
+      <c r="E19" s="367"/>
       <c r="F19" s="94" t="s">
         <v>141</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="347"/>
-      <c r="I19" s="311"/>
-      <c r="J19" s="293"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="307"/>
-      <c r="B20" s="297"/>
-      <c r="C20" s="348"/>
-      <c r="D20" s="293"/>
-      <c r="E20" s="351"/>
+      <c r="H19" s="337"/>
+      <c r="I19" s="304"/>
+      <c r="J19" s="306"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="293"/>
+      <c r="B20" s="333"/>
+      <c r="C20" s="334"/>
+      <c r="D20" s="306"/>
+      <c r="E20" s="367"/>
       <c r="F20" s="94" t="s">
         <v>142</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="347"/>
-      <c r="I20" s="311"/>
-      <c r="J20" s="293"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="307"/>
-      <c r="B21" s="297"/>
-      <c r="C21" s="348"/>
-      <c r="D21" s="293"/>
-      <c r="E21" s="361"/>
+      <c r="H20" s="337"/>
+      <c r="I20" s="304"/>
+      <c r="J20" s="306"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="293"/>
+      <c r="B21" s="333"/>
+      <c r="C21" s="334"/>
+      <c r="D21" s="306"/>
+      <c r="E21" s="368"/>
       <c r="F21" s="93" t="s">
         <v>143</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="347"/>
-      <c r="I21" s="312"/>
-      <c r="J21" s="293"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="349" t="s">
+      <c r="H21" s="337"/>
+      <c r="I21" s="305"/>
+      <c r="J21" s="306"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="365" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="297" t="s">
+      <c r="B22" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="306"/>
-      <c r="D22" s="293"/>
-      <c r="E22" s="336" t="s">
+      <c r="C22" s="321"/>
+      <c r="D22" s="306"/>
+      <c r="E22" s="366" t="s">
         <v>153</v>
       </c>
       <c r="F22" s="18" t="s">
@@ -4936,54 +4934,54 @@
       <c r="G22" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="347" t="s">
+      <c r="H22" s="337" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="310"/>
-      <c r="J22" s="293"/>
-    </row>
-    <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="349"/>
-      <c r="B23" s="297"/>
-      <c r="C23" s="306"/>
-      <c r="D23" s="293"/>
-      <c r="E23" s="351"/>
+      <c r="I22" s="303"/>
+      <c r="J22" s="306"/>
+    </row>
+    <row r="23" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="365"/>
+      <c r="B23" s="333"/>
+      <c r="C23" s="321"/>
+      <c r="D23" s="306"/>
+      <c r="E23" s="367"/>
       <c r="F23" s="19" t="s">
         <v>145</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="347"/>
-      <c r="I23" s="311"/>
-      <c r="J23" s="293"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="350"/>
-      <c r="B24" s="342"/>
-      <c r="C24" s="302"/>
-      <c r="D24" s="327"/>
-      <c r="E24" s="351"/>
+      <c r="H23" s="337"/>
+      <c r="I23" s="304"/>
+      <c r="J23" s="306"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="384"/>
+      <c r="B24" s="386"/>
+      <c r="C24" s="375"/>
+      <c r="D24" s="312"/>
+      <c r="E24" s="367"/>
       <c r="F24" s="21" t="s">
         <v>146</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="347"/>
-      <c r="I24" s="312"/>
-      <c r="J24" s="293"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="307" t="s">
+      <c r="H24" s="337"/>
+      <c r="I24" s="305"/>
+      <c r="J24" s="306"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="293" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="297" t="s">
+      <c r="B25" s="333" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="348"/>
-      <c r="D25" s="293"/>
-      <c r="E25" s="352" t="s">
+      <c r="C25" s="334"/>
+      <c r="D25" s="306"/>
+      <c r="E25" s="385" t="s">
         <v>154</v>
       </c>
       <c r="F25" s="85" t="s">
@@ -4992,88 +4990,88 @@
       <c r="G25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="293" t="s">
+      <c r="H25" s="306" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="322"/>
-      <c r="J25" s="293"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="307"/>
-      <c r="B26" s="297"/>
-      <c r="C26" s="348"/>
-      <c r="D26" s="293"/>
-      <c r="E26" s="352"/>
+      <c r="I25" s="382"/>
+      <c r="J25" s="306"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="293"/>
+      <c r="B26" s="333"/>
+      <c r="C26" s="334"/>
+      <c r="D26" s="306"/>
+      <c r="E26" s="385"/>
       <c r="F26" s="90" t="s">
         <v>148</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="293"/>
-      <c r="I26" s="323"/>
-      <c r="J26" s="293"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="307"/>
-      <c r="B27" s="297"/>
-      <c r="C27" s="348"/>
-      <c r="D27" s="293"/>
-      <c r="E27" s="352"/>
+      <c r="H26" s="306"/>
+      <c r="I26" s="399"/>
+      <c r="J26" s="306"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="293"/>
+      <c r="B27" s="333"/>
+      <c r="C27" s="334"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="385"/>
       <c r="F27" s="90" t="s">
         <v>149</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="293"/>
-      <c r="I27" s="323"/>
-      <c r="J27" s="293"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="307"/>
-      <c r="B28" s="297"/>
-      <c r="C28" s="348"/>
-      <c r="D28" s="293"/>
-      <c r="E28" s="352"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="399"/>
+      <c r="J27" s="306"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="293"/>
+      <c r="B28" s="333"/>
+      <c r="C28" s="334"/>
+      <c r="D28" s="306"/>
+      <c r="E28" s="385"/>
       <c r="F28" s="90" t="s">
         <v>150</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="293"/>
-      <c r="I28" s="323"/>
-      <c r="J28" s="293"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="307"/>
-      <c r="B29" s="297"/>
-      <c r="C29" s="348"/>
-      <c r="D29" s="293"/>
-      <c r="E29" s="352"/>
+      <c r="H28" s="306"/>
+      <c r="I28" s="399"/>
+      <c r="J28" s="306"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="293"/>
+      <c r="B29" s="333"/>
+      <c r="C29" s="334"/>
+      <c r="D29" s="306"/>
+      <c r="E29" s="385"/>
       <c r="F29" s="86" t="s">
         <v>151</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="293"/>
-      <c r="I29" s="324"/>
-      <c r="J29" s="293"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="307" t="s">
+      <c r="H29" s="306"/>
+      <c r="I29" s="383"/>
+      <c r="J29" s="306"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="297" t="s">
+      <c r="B30" s="333" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="306"/>
-      <c r="D30" s="295">
+      <c r="C30" s="321"/>
+      <c r="D30" s="335">
         <v>44015</v>
       </c>
-      <c r="E30" s="345" t="s">
+      <c r="E30" s="338" t="s">
         <v>155</v>
       </c>
       <c r="F30" s="23" t="s">
@@ -5082,40 +5080,40 @@
       <c r="G30" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="343" t="s">
+      <c r="H30" s="376" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="310"/>
-      <c r="J30" s="327"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="307"/>
-      <c r="B31" s="297"/>
-      <c r="C31" s="306"/>
-      <c r="D31" s="293"/>
-      <c r="E31" s="346"/>
+      <c r="I30" s="303"/>
+      <c r="J30" s="312"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="293"/>
+      <c r="B31" s="333"/>
+      <c r="C31" s="321"/>
+      <c r="D31" s="306"/>
+      <c r="E31" s="340"/>
       <c r="F31" s="21" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="344"/>
-      <c r="I31" s="312"/>
-      <c r="J31" s="328"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="339" t="s">
+      <c r="H31" s="378"/>
+      <c r="I31" s="305"/>
+      <c r="J31" s="313"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="348" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="297" t="s">
+      <c r="B32" s="333" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="306"/>
-      <c r="D32" s="295">
+      <c r="C32" s="321"/>
+      <c r="D32" s="335">
         <v>44015</v>
       </c>
-      <c r="E32" s="336" t="s">
+      <c r="E32" s="366" t="s">
         <v>156</v>
       </c>
       <c r="F32" s="18" t="s">
@@ -5124,87 +5122,87 @@
       <c r="G32" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="332" t="s">
+      <c r="H32" s="354" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="313"/>
-      <c r="J32" s="327"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="340"/>
-      <c r="B33" s="297"/>
-      <c r="C33" s="306"/>
-      <c r="D33" s="293"/>
-      <c r="E33" s="337"/>
+      <c r="I32" s="351"/>
+      <c r="J32" s="312"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="349"/>
+      <c r="B33" s="333"/>
+      <c r="C33" s="321"/>
+      <c r="D33" s="306"/>
+      <c r="E33" s="389"/>
       <c r="F33" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="333"/>
-      <c r="I33" s="314"/>
-      <c r="J33" s="335"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="341"/>
-      <c r="B34" s="297"/>
-      <c r="C34" s="306"/>
-      <c r="D34" s="293"/>
-      <c r="E34" s="338"/>
+      <c r="H33" s="355"/>
+      <c r="I33" s="352"/>
+      <c r="J33" s="388"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="350"/>
+      <c r="B34" s="333"/>
+      <c r="C34" s="321"/>
+      <c r="D34" s="306"/>
+      <c r="E34" s="390"/>
       <c r="F34" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="334"/>
-      <c r="I34" s="315"/>
-      <c r="J34" s="328"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="307" t="s">
+      <c r="H34" s="356"/>
+      <c r="I34" s="353"/>
+      <c r="J34" s="313"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="297" t="s">
+      <c r="B35" s="333" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="306"/>
-      <c r="D35" s="295">
+      <c r="C35" s="321"/>
+      <c r="D35" s="335">
         <v>44046</v>
       </c>
-      <c r="E35" s="325" t="s">
+      <c r="E35" s="357" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="325" t="s">
+      <c r="F35" s="357" t="s">
         <v>167</v>
       </c>
-      <c r="G35" s="326" t="s">
+      <c r="G35" s="359" t="s">
         <v>41</v>
       </c>
       <c r="H35" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="I35" s="327" t="s">
+      <c r="I35" s="312" t="s">
         <v>173</v>
       </c>
       <c r="J35" s="85"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="339"/>
-      <c r="B36" s="342"/>
-      <c r="C36" s="302"/>
-      <c r="D36" s="331"/>
-      <c r="E36" s="330"/>
-      <c r="F36" s="330"/>
-      <c r="G36" s="329"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="348"/>
+      <c r="B36" s="386"/>
+      <c r="C36" s="375"/>
+      <c r="D36" s="387"/>
+      <c r="E36" s="401"/>
+      <c r="F36" s="401"/>
+      <c r="G36" s="400"/>
       <c r="H36" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="I36" s="328"/>
+      <c r="I36" s="313"/>
       <c r="J36" s="86"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="241" t="s">
         <v>17</v>
       </c>
@@ -5232,27 +5230,27 @@
       </c>
       <c r="J37" s="84"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="307" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="297" t="s">
+      <c r="B38" s="333" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="306"/>
-      <c r="D38" s="295">
+      <c r="C38" s="321"/>
+      <c r="D38" s="335">
         <v>44046</v>
       </c>
-      <c r="E38" s="325" t="s">
+      <c r="E38" s="357" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="325" t="s">
+      <c r="F38" s="357" t="s">
         <v>186</v>
       </c>
-      <c r="G38" s="326" t="s">
+      <c r="G38" s="359" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="327" t="s">
+      <c r="H38" s="312" t="s">
         <v>175</v>
       </c>
       <c r="I38" s="84" t="s">
@@ -5260,21 +5258,21 @@
       </c>
       <c r="J38" s="95"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="307"/>
-      <c r="B39" s="297"/>
-      <c r="C39" s="306"/>
-      <c r="D39" s="295"/>
-      <c r="E39" s="325"/>
-      <c r="F39" s="325"/>
-      <c r="G39" s="326"/>
-      <c r="H39" s="328"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="293"/>
+      <c r="B39" s="333"/>
+      <c r="C39" s="321"/>
+      <c r="D39" s="335"/>
+      <c r="E39" s="357"/>
+      <c r="F39" s="357"/>
+      <c r="G39" s="359"/>
+      <c r="H39" s="313"/>
       <c r="I39" s="84" t="s">
         <v>176</v>
       </c>
       <c r="J39" s="96"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="241" t="s">
         <v>21</v>
       </c>
@@ -5302,7 +5300,7 @@
       </c>
       <c r="J40" s="84"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="241" t="s">
         <v>22</v>
       </c>
@@ -5330,18 +5328,18 @@
       </c>
       <c r="J41" s="84"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="316" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="391" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="304" t="s">
+      <c r="B42" s="397" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="302"/>
-      <c r="D42" s="320">
+      <c r="C42" s="375"/>
+      <c r="D42" s="395">
         <v>44067</v>
       </c>
-      <c r="E42" s="318" t="s">
+      <c r="E42" s="393" t="s">
         <v>190</v>
       </c>
       <c r="F42" s="103" t="s">
@@ -5350,44 +5348,44 @@
       <c r="G42" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="302" t="s">
+      <c r="H42" s="375" t="s">
         <v>194</v>
       </c>
-      <c r="I42" s="302" t="s">
+      <c r="I42" s="375" t="s">
         <v>195</v>
       </c>
-      <c r="J42" s="302" t="s">
+      <c r="J42" s="375" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="317"/>
-      <c r="B43" s="305"/>
-      <c r="C43" s="303"/>
-      <c r="D43" s="321"/>
-      <c r="E43" s="319"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="392"/>
+      <c r="B43" s="398"/>
+      <c r="C43" s="370"/>
+      <c r="D43" s="396"/>
+      <c r="E43" s="394"/>
       <c r="F43" s="105" t="s">
         <v>192</v>
       </c>
       <c r="G43" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="H43" s="303"/>
-      <c r="I43" s="303"/>
-      <c r="J43" s="303"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="349" t="s">
+      <c r="H43" s="370"/>
+      <c r="I43" s="370"/>
+      <c r="J43" s="370"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="365" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="297" t="s">
+      <c r="B44" s="333" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="348"/>
-      <c r="D44" s="295">
+      <c r="C44" s="334"/>
+      <c r="D44" s="335">
         <v>44046</v>
       </c>
-      <c r="E44" s="336" t="s">
+      <c r="E44" s="366" t="s">
         <v>196</v>
       </c>
       <c r="F44" s="18" t="s">
@@ -5396,58 +5394,58 @@
       <c r="G44" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="347" t="s">
+      <c r="H44" s="337" t="s">
         <v>51</v>
       </c>
-      <c r="I44" s="310" t="s">
+      <c r="I44" s="303" t="s">
         <v>197</v>
       </c>
-      <c r="J44" s="293"/>
-    </row>
-    <row r="45" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="349"/>
-      <c r="B45" s="297"/>
-      <c r="C45" s="348"/>
-      <c r="D45" s="293"/>
-      <c r="E45" s="351"/>
+      <c r="J44" s="306"/>
+    </row>
+    <row r="45" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="365"/>
+      <c r="B45" s="333"/>
+      <c r="C45" s="334"/>
+      <c r="D45" s="306"/>
+      <c r="E45" s="367"/>
       <c r="F45" s="19" t="s">
         <v>145</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="347"/>
-      <c r="I45" s="311"/>
-      <c r="J45" s="293"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="349"/>
-      <c r="B46" s="297"/>
-      <c r="C46" s="348"/>
-      <c r="D46" s="293"/>
-      <c r="E46" s="361"/>
+      <c r="H45" s="337"/>
+      <c r="I45" s="304"/>
+      <c r="J45" s="306"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="365"/>
+      <c r="B46" s="333"/>
+      <c r="C46" s="334"/>
+      <c r="D46" s="306"/>
+      <c r="E46" s="368"/>
       <c r="F46" s="21" t="s">
         <v>146</v>
       </c>
       <c r="G46" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="347"/>
-      <c r="I46" s="312"/>
-      <c r="J46" s="293"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="307" t="s">
+      <c r="H46" s="337"/>
+      <c r="I46" s="305"/>
+      <c r="J46" s="306"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="293" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="293" t="s">
+      <c r="B47" s="306" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="348"/>
-      <c r="D47" s="295">
+      <c r="C47" s="334"/>
+      <c r="D47" s="335">
         <v>44071</v>
       </c>
-      <c r="E47" s="293" t="s">
+      <c r="E47" s="306" t="s">
         <v>198</v>
       </c>
       <c r="F47" s="102" t="s">
@@ -5456,75 +5454,75 @@
       <c r="G47" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="293" t="s">
+      <c r="H47" s="306" t="s">
         <v>194</v>
       </c>
-      <c r="I47" s="293" t="s">
+      <c r="I47" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="J47" s="293" t="s">
+      <c r="J47" s="306" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="307"/>
-      <c r="B48" s="293"/>
-      <c r="C48" s="348"/>
-      <c r="D48" s="293"/>
-      <c r="E48" s="293"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="293"/>
+      <c r="B48" s="306"/>
+      <c r="C48" s="334"/>
+      <c r="D48" s="306"/>
+      <c r="E48" s="306"/>
       <c r="F48" s="101" t="s">
         <v>192</v>
       </c>
       <c r="G48" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="H48" s="293"/>
-      <c r="I48" s="293"/>
-      <c r="J48" s="293"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="307" t="s">
+      <c r="H48" s="306"/>
+      <c r="I48" s="306"/>
+      <c r="J48" s="306"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="297" t="s">
+      <c r="B49" s="333" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="348"/>
-      <c r="D49" s="295"/>
-      <c r="E49" s="375" t="s">
+      <c r="C49" s="334"/>
+      <c r="D49" s="335"/>
+      <c r="E49" s="364" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="325" t="s">
+      <c r="F49" s="357" t="s">
         <v>259</v>
       </c>
-      <c r="G49" s="326" t="s">
+      <c r="G49" s="359" t="s">
         <v>41</v>
       </c>
       <c r="H49" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="I49" s="327" t="s">
+      <c r="I49" s="312" t="s">
         <v>260</v>
       </c>
-      <c r="J49" s="373" t="s">
+      <c r="J49" s="360" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="307"/>
-      <c r="B50" s="297"/>
-      <c r="C50" s="348"/>
-      <c r="D50" s="295"/>
-      <c r="E50" s="375"/>
-      <c r="F50" s="325"/>
-      <c r="G50" s="326"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="293"/>
+      <c r="B50" s="333"/>
+      <c r="C50" s="334"/>
+      <c r="D50" s="335"/>
+      <c r="E50" s="364"/>
+      <c r="F50" s="357"/>
+      <c r="G50" s="359"/>
       <c r="H50" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="I50" s="328"/>
-      <c r="J50" s="374"/>
-    </row>
-    <row r="51" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I50" s="313"/>
+      <c r="J50" s="361"/>
+    </row>
+    <row r="51" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="241" t="s">
         <v>17</v>
       </c>
@@ -5552,56 +5550,56 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="307" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="297" t="s">
+      <c r="B52" s="333" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="348"/>
-      <c r="D52" s="295"/>
-      <c r="E52" s="375" t="s">
+      <c r="C52" s="334"/>
+      <c r="D52" s="335"/>
+      <c r="E52" s="364" t="s">
         <v>187</v>
       </c>
-      <c r="F52" s="325" t="s">
+      <c r="F52" s="357" t="s">
         <v>263</v>
       </c>
-      <c r="G52" s="326" t="s">
+      <c r="G52" s="359" t="s">
         <v>41</v>
       </c>
-      <c r="H52" s="327" t="s">
+      <c r="H52" s="312" t="s">
         <v>175</v>
       </c>
-      <c r="I52" s="327" t="s">
+      <c r="I52" s="312" t="s">
         <v>260</v>
       </c>
-      <c r="J52" s="380" t="s">
+      <c r="J52" s="346" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="307"/>
-      <c r="B53" s="297"/>
-      <c r="C53" s="348"/>
-      <c r="D53" s="295"/>
-      <c r="E53" s="375"/>
-      <c r="F53" s="325"/>
-      <c r="G53" s="326"/>
-      <c r="H53" s="328"/>
-      <c r="I53" s="328"/>
-      <c r="J53" s="381"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="339" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="293"/>
+      <c r="B53" s="333"/>
+      <c r="C53" s="334"/>
+      <c r="D53" s="335"/>
+      <c r="E53" s="364"/>
+      <c r="F53" s="357"/>
+      <c r="G53" s="359"/>
+      <c r="H53" s="313"/>
+      <c r="I53" s="313"/>
+      <c r="J53" s="347"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="348" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="297" t="s">
+      <c r="B54" s="333" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="348"/>
-      <c r="D54" s="295"/>
-      <c r="E54" s="332" t="s">
+      <c r="C54" s="334"/>
+      <c r="D54" s="335"/>
+      <c r="E54" s="354" t="s">
         <v>156</v>
       </c>
       <c r="F54" s="23" t="s">
@@ -5610,58 +5608,58 @@
       <c r="G54" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="H54" s="332" t="s">
+      <c r="H54" s="354" t="s">
         <v>179</v>
       </c>
-      <c r="I54" s="345" t="s">
+      <c r="I54" s="338" t="s">
         <v>260</v>
       </c>
-      <c r="J54" s="377" t="s">
+      <c r="J54" s="341" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="340"/>
-      <c r="B55" s="297"/>
-      <c r="C55" s="348"/>
-      <c r="D55" s="293"/>
-      <c r="E55" s="382"/>
+    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="349"/>
+      <c r="B55" s="333"/>
+      <c r="C55" s="334"/>
+      <c r="D55" s="306"/>
+      <c r="E55" s="362"/>
       <c r="F55" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="333"/>
-      <c r="I55" s="376"/>
-      <c r="J55" s="378"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="341"/>
-      <c r="B56" s="297"/>
-      <c r="C56" s="348"/>
-      <c r="D56" s="293"/>
-      <c r="E56" s="383"/>
+      <c r="H55" s="355"/>
+      <c r="I55" s="339"/>
+      <c r="J55" s="308"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="350"/>
+      <c r="B56" s="333"/>
+      <c r="C56" s="334"/>
+      <c r="D56" s="306"/>
+      <c r="E56" s="363"/>
       <c r="F56" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="334"/>
-      <c r="I56" s="346"/>
-      <c r="J56" s="379"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="307" t="s">
+      <c r="H56" s="356"/>
+      <c r="I56" s="340"/>
+      <c r="J56" s="309"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="297" t="s">
+      <c r="B57" s="333" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="348"/>
-      <c r="D57" s="293"/>
-      <c r="E57" s="293" t="s">
+      <c r="C57" s="334"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306" t="s">
         <v>182</v>
       </c>
       <c r="F57" s="122" t="s">
@@ -5670,60 +5668,60 @@
       <c r="G57" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="347" t="s">
+      <c r="H57" s="337" t="s">
         <v>184</v>
       </c>
-      <c r="I57" s="345" t="s">
+      <c r="I57" s="338" t="s">
         <v>260</v>
       </c>
-      <c r="J57" s="377" t="s">
+      <c r="J57" s="341" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="307"/>
-      <c r="B58" s="297"/>
-      <c r="C58" s="348"/>
-      <c r="D58" s="293"/>
-      <c r="E58" s="293"/>
+    <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="293"/>
+      <c r="B58" s="333"/>
+      <c r="C58" s="334"/>
+      <c r="D58" s="306"/>
+      <c r="E58" s="306"/>
       <c r="F58" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G58" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="347"/>
-      <c r="I58" s="376"/>
-      <c r="J58" s="378"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="307"/>
-      <c r="B59" s="297"/>
-      <c r="C59" s="348"/>
-      <c r="D59" s="293"/>
-      <c r="E59" s="293"/>
+      <c r="H58" s="337"/>
+      <c r="I58" s="339"/>
+      <c r="J58" s="308"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="293"/>
+      <c r="B59" s="333"/>
+      <c r="C59" s="334"/>
+      <c r="D59" s="306"/>
+      <c r="E59" s="306"/>
       <c r="F59" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G59" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="347"/>
-      <c r="I59" s="346"/>
-      <c r="J59" s="379"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="307" t="s">
+      <c r="H59" s="337"/>
+      <c r="I59" s="340"/>
+      <c r="J59" s="309"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="293" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="293" t="s">
+      <c r="B60" s="306" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="348"/>
-      <c r="D60" s="295">
+      <c r="C60" s="334"/>
+      <c r="D60" s="335">
         <v>44071</v>
       </c>
-      <c r="E60" s="293" t="s">
+      <c r="E60" s="306" t="s">
         <v>198</v>
       </c>
       <c r="F60" s="130" t="s">
@@ -5732,77 +5730,77 @@
       <c r="G60" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="293" t="s">
+      <c r="H60" s="306" t="s">
         <v>194</v>
       </c>
-      <c r="I60" s="293" t="s">
+      <c r="I60" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="J60" s="293" t="s">
+      <c r="J60" s="306" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="307"/>
-      <c r="B61" s="293"/>
-      <c r="C61" s="348"/>
-      <c r="D61" s="293"/>
-      <c r="E61" s="293"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="293"/>
+      <c r="B61" s="306"/>
+      <c r="C61" s="334"/>
+      <c r="D61" s="306"/>
+      <c r="E61" s="306"/>
       <c r="F61" s="129" t="s">
         <v>192</v>
       </c>
       <c r="G61" s="129" t="s">
         <v>193</v>
       </c>
-      <c r="H61" s="293"/>
-      <c r="I61" s="293"/>
-      <c r="J61" s="293"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="307" t="s">
+      <c r="H61" s="306"/>
+      <c r="I61" s="306"/>
+      <c r="J61" s="306"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="297" t="s">
+      <c r="B62" s="333" t="s">
         <v>203</v>
       </c>
-      <c r="C62" s="348"/>
-      <c r="D62" s="295">
+      <c r="C62" s="334"/>
+      <c r="D62" s="335">
         <v>44021</v>
       </c>
-      <c r="E62" s="325" t="s">
+      <c r="E62" s="357" t="s">
         <v>266</v>
       </c>
-      <c r="F62" s="384" t="s">
+      <c r="F62" s="358" t="s">
         <v>259</v>
       </c>
-      <c r="G62" s="326" t="s">
+      <c r="G62" s="359" t="s">
         <v>41</v>
       </c>
       <c r="H62" s="125" t="s">
         <v>271</v>
       </c>
-      <c r="I62" s="327" t="s">
+      <c r="I62" s="312" t="s">
         <v>260</v>
       </c>
-      <c r="J62" s="373" t="s">
+      <c r="J62" s="360" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="307"/>
-      <c r="B63" s="297"/>
-      <c r="C63" s="348"/>
-      <c r="D63" s="295"/>
-      <c r="E63" s="325"/>
-      <c r="F63" s="384"/>
-      <c r="G63" s="326"/>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="293"/>
+      <c r="B63" s="333"/>
+      <c r="C63" s="334"/>
+      <c r="D63" s="335"/>
+      <c r="E63" s="357"/>
+      <c r="F63" s="358"/>
+      <c r="G63" s="359"/>
       <c r="H63" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="I63" s="328"/>
-      <c r="J63" s="374"/>
-    </row>
-    <row r="64" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I63" s="313"/>
+      <c r="J63" s="361"/>
+    </row>
+    <row r="64" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="241" t="s">
         <v>17</v>
       </c>
@@ -5832,60 +5830,60 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="307" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="297" t="s">
+      <c r="B65" s="333" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="348"/>
-      <c r="D65" s="295">
+      <c r="C65" s="334"/>
+      <c r="D65" s="335">
         <v>44021</v>
       </c>
-      <c r="E65" s="325" t="s">
+      <c r="E65" s="357" t="s">
         <v>268</v>
       </c>
-      <c r="F65" s="384" t="s">
+      <c r="F65" s="358" t="s">
         <v>263</v>
       </c>
-      <c r="G65" s="326" t="s">
+      <c r="G65" s="359" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="327" t="s">
+      <c r="H65" s="312" t="s">
         <v>274</v>
       </c>
-      <c r="I65" s="327" t="s">
+      <c r="I65" s="312" t="s">
         <v>260</v>
       </c>
-      <c r="J65" s="380" t="s">
+      <c r="J65" s="346" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="307"/>
-      <c r="B66" s="297"/>
-      <c r="C66" s="348"/>
-      <c r="D66" s="295"/>
-      <c r="E66" s="325"/>
-      <c r="F66" s="384"/>
-      <c r="G66" s="326"/>
-      <c r="H66" s="328"/>
-      <c r="I66" s="328"/>
-      <c r="J66" s="381"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="339" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="293"/>
+      <c r="B66" s="333"/>
+      <c r="C66" s="334"/>
+      <c r="D66" s="335"/>
+      <c r="E66" s="357"/>
+      <c r="F66" s="358"/>
+      <c r="G66" s="359"/>
+      <c r="H66" s="313"/>
+      <c r="I66" s="313"/>
+      <c r="J66" s="347"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="348" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="297" t="s">
+      <c r="B67" s="333" t="s">
         <v>203</v>
       </c>
-      <c r="C67" s="348"/>
-      <c r="D67" s="295">
+      <c r="C67" s="334"/>
+      <c r="D67" s="335">
         <v>44021</v>
       </c>
-      <c r="E67" s="313" t="s">
+      <c r="E67" s="351" t="s">
         <v>269</v>
       </c>
       <c r="F67" s="18" t="s">
@@ -5894,60 +5892,60 @@
       <c r="G67" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="H67" s="332" t="s">
+      <c r="H67" s="354" t="s">
         <v>275</v>
       </c>
-      <c r="I67" s="345" t="s">
+      <c r="I67" s="338" t="s">
         <v>260</v>
       </c>
-      <c r="J67" s="377" t="s">
+      <c r="J67" s="341" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="340"/>
-      <c r="B68" s="297"/>
-      <c r="C68" s="348"/>
-      <c r="D68" s="293"/>
-      <c r="E68" s="314"/>
+    <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="349"/>
+      <c r="B68" s="333"/>
+      <c r="C68" s="334"/>
+      <c r="D68" s="306"/>
+      <c r="E68" s="352"/>
       <c r="F68" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G68" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H68" s="333"/>
-      <c r="I68" s="376"/>
-      <c r="J68" s="378"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="341"/>
-      <c r="B69" s="297"/>
-      <c r="C69" s="348"/>
-      <c r="D69" s="293"/>
-      <c r="E69" s="315"/>
+      <c r="H68" s="355"/>
+      <c r="I68" s="339"/>
+      <c r="J68" s="308"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="350"/>
+      <c r="B69" s="333"/>
+      <c r="C69" s="334"/>
+      <c r="D69" s="306"/>
+      <c r="E69" s="353"/>
       <c r="F69" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H69" s="334"/>
-      <c r="I69" s="346"/>
-      <c r="J69" s="379"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="307" t="s">
+      <c r="H69" s="356"/>
+      <c r="I69" s="340"/>
+      <c r="J69" s="309"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="297" t="s">
+      <c r="B70" s="333" t="s">
         <v>203</v>
       </c>
-      <c r="C70" s="348"/>
-      <c r="D70" s="295">
+      <c r="C70" s="334"/>
+      <c r="D70" s="335">
         <v>44021</v>
       </c>
-      <c r="E70" s="296" t="s">
+      <c r="E70" s="336" t="s">
         <v>270</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -5956,60 +5954,60 @@
       <c r="G70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="347" t="s">
+      <c r="H70" s="337" t="s">
         <v>276</v>
       </c>
-      <c r="I70" s="345" t="s">
+      <c r="I70" s="338" t="s">
         <v>260</v>
       </c>
-      <c r="J70" s="377" t="s">
+      <c r="J70" s="341" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="307"/>
-      <c r="B71" s="297"/>
-      <c r="C71" s="348"/>
-      <c r="D71" s="293"/>
-      <c r="E71" s="296"/>
+    <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="293"/>
+      <c r="B71" s="333"/>
+      <c r="C71" s="334"/>
+      <c r="D71" s="306"/>
+      <c r="E71" s="336"/>
       <c r="F71" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G71" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="H71" s="347"/>
-      <c r="I71" s="376"/>
-      <c r="J71" s="378"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="307"/>
-      <c r="B72" s="297"/>
-      <c r="C72" s="348"/>
-      <c r="D72" s="293"/>
-      <c r="E72" s="296"/>
+      <c r="H71" s="337"/>
+      <c r="I71" s="339"/>
+      <c r="J71" s="308"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="293"/>
+      <c r="B72" s="333"/>
+      <c r="C72" s="334"/>
+      <c r="D72" s="306"/>
+      <c r="E72" s="336"/>
       <c r="F72" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G72" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="347"/>
-      <c r="I72" s="346"/>
-      <c r="J72" s="379"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="393" t="s">
+      <c r="H72" s="337"/>
+      <c r="I72" s="340"/>
+      <c r="J72" s="309"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="345" t="s">
         <v>309</v>
       </c>
-      <c r="B73" s="392" t="s">
+      <c r="B73" s="344" t="s">
         <v>310</v>
       </c>
-      <c r="C73" s="301"/>
-      <c r="D73" s="391">
+      <c r="C73" s="342"/>
+      <c r="D73" s="343">
         <v>44095</v>
       </c>
-      <c r="E73" s="301" t="s">
+      <c r="E73" s="342" t="s">
         <v>311</v>
       </c>
       <c r="F73" s="216" t="s">
@@ -6021,19 +6019,19 @@
       <c r="H73" s="220" t="s">
         <v>314</v>
       </c>
-      <c r="I73" s="392" t="s">
+      <c r="I73" s="344" t="s">
         <v>316</v>
       </c>
-      <c r="J73" s="301" t="s">
+      <c r="J73" s="342" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="393"/>
-      <c r="B74" s="392"/>
-      <c r="C74" s="301"/>
-      <c r="D74" s="391"/>
-      <c r="E74" s="301"/>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="345"/>
+      <c r="B74" s="344"/>
+      <c r="C74" s="342"/>
+      <c r="D74" s="343"/>
+      <c r="E74" s="342"/>
       <c r="F74" s="217" t="s">
         <v>313</v>
       </c>
@@ -6043,21 +6041,21 @@
       <c r="H74" s="221" t="s">
         <v>315</v>
       </c>
-      <c r="I74" s="392"/>
-      <c r="J74" s="301"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="385" t="s">
+      <c r="I74" s="344"/>
+      <c r="J74" s="342"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="327" t="s">
         <v>309</v>
       </c>
-      <c r="B75" s="386" t="s">
+      <c r="B75" s="328" t="s">
         <v>310</v>
       </c>
-      <c r="C75" s="387"/>
-      <c r="D75" s="388">
+      <c r="C75" s="329"/>
+      <c r="D75" s="330">
         <v>44096</v>
       </c>
-      <c r="E75" s="389" t="s">
+      <c r="E75" s="331" t="s">
         <v>311</v>
       </c>
       <c r="F75" s="222" t="s">
@@ -6069,19 +6067,19 @@
       <c r="H75" t="s">
         <v>321</v>
       </c>
-      <c r="I75" s="386" t="s">
+      <c r="I75" s="328" t="s">
         <v>319</v>
       </c>
-      <c r="J75" s="390" t="s">
+      <c r="J75" s="332" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="385"/>
-      <c r="B76" s="386"/>
-      <c r="C76" s="387"/>
-      <c r="D76" s="388"/>
-      <c r="E76" s="389"/>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="327"/>
+      <c r="B76" s="328"/>
+      <c r="C76" s="329"/>
+      <c r="D76" s="330"/>
+      <c r="E76" s="331"/>
       <c r="F76" s="215" t="s">
         <v>313</v>
       </c>
@@ -6091,21 +6089,21 @@
       <c r="H76" s="218" t="s">
         <v>315</v>
       </c>
-      <c r="I76" s="386"/>
-      <c r="J76" s="390"/>
-    </row>
-    <row r="77" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="304" t="s">
+      <c r="I76" s="328"/>
+      <c r="J76" s="332"/>
+    </row>
+    <row r="77" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="397" t="s">
         <v>359</v>
       </c>
-      <c r="B77" s="302" t="s">
+      <c r="B77" s="375" t="s">
         <v>365</v>
       </c>
-      <c r="C77" s="301"/>
-      <c r="D77" s="300">
+      <c r="C77" s="342"/>
+      <c r="D77" s="322">
         <v>44116</v>
       </c>
-      <c r="E77" s="298" t="s">
+      <c r="E77" s="402" t="s">
         <v>360</v>
       </c>
       <c r="F77" s="246" t="s">
@@ -6114,42 +6112,42 @@
       <c r="G77" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="306" t="s">
+      <c r="H77" s="321" t="s">
         <v>363</v>
       </c>
-      <c r="I77" s="306" t="s">
+      <c r="I77" s="321" t="s">
         <v>364</v>
       </c>
-      <c r="J77" s="306"/>
-    </row>
-    <row r="78" spans="1:10" s="104" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="305"/>
-      <c r="B78" s="303"/>
-      <c r="C78" s="301"/>
-      <c r="D78" s="301"/>
-      <c r="E78" s="299"/>
+      <c r="J77" s="321"/>
+    </row>
+    <row r="78" spans="1:10" s="104" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="398"/>
+      <c r="B78" s="370"/>
+      <c r="C78" s="342"/>
+      <c r="D78" s="342"/>
+      <c r="E78" s="403"/>
       <c r="F78" s="248" t="s">
         <v>362</v>
       </c>
       <c r="G78" s="243" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="301"/>
-      <c r="I78" s="301"/>
-      <c r="J78" s="301"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="307" t="s">
+      <c r="H78" s="342"/>
+      <c r="I78" s="342"/>
+      <c r="J78" s="342"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="293" t="s">
         <v>188</v>
       </c>
-      <c r="B79" s="293" t="s">
+      <c r="B79" s="306" t="s">
         <v>392</v>
       </c>
-      <c r="C79" s="294"/>
-      <c r="D79" s="295">
+      <c r="C79" s="296"/>
+      <c r="D79" s="335">
         <v>44109</v>
       </c>
-      <c r="E79" s="296" t="s">
+      <c r="E79" s="336" t="s">
         <v>393</v>
       </c>
       <c r="F79" s="245" t="s">
@@ -6158,42 +6156,42 @@
       <c r="G79" s="245" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="293" t="s">
+      <c r="H79" s="306" t="s">
         <v>395</v>
       </c>
-      <c r="I79" s="293" t="s">
+      <c r="I79" s="306" t="s">
         <v>396</v>
       </c>
-      <c r="J79" s="293"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="307"/>
-      <c r="B80" s="293"/>
-      <c r="C80" s="294"/>
-      <c r="D80" s="293"/>
-      <c r="E80" s="296"/>
+      <c r="J79" s="306"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="293"/>
+      <c r="B80" s="306"/>
+      <c r="C80" s="296"/>
+      <c r="D80" s="306"/>
+      <c r="E80" s="336"/>
       <c r="F80" s="247" t="s">
         <v>394</v>
       </c>
       <c r="G80" s="244" t="s">
         <v>193</v>
       </c>
-      <c r="H80" s="293"/>
-      <c r="I80" s="293"/>
-      <c r="J80" s="293"/>
-    </row>
-    <row r="81" spans="1:10" s="292" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="306" t="s">
+      <c r="H80" s="306"/>
+      <c r="I80" s="306"/>
+      <c r="J80" s="306"/>
+    </row>
+    <row r="81" spans="1:10" s="292" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="321" t="s">
         <v>359</v>
       </c>
-      <c r="B81" s="306" t="s">
+      <c r="B81" s="321" t="s">
         <v>365</v>
       </c>
-      <c r="C81" s="306"/>
-      <c r="D81" s="300">
+      <c r="C81" s="321"/>
+      <c r="D81" s="322">
         <v>44116</v>
       </c>
-      <c r="E81" s="306" t="s">
+      <c r="E81" s="321" t="s">
         <v>397</v>
       </c>
       <c r="F81" s="235" t="s">
@@ -6202,44 +6200,44 @@
       <c r="G81" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="306" t="s">
+      <c r="H81" s="321" t="s">
         <v>363</v>
       </c>
-      <c r="I81" s="306" t="s">
+      <c r="I81" s="321" t="s">
         <v>398</v>
       </c>
-      <c r="J81" s="394" t="s">
+      <c r="J81" s="323" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="306"/>
-      <c r="B82" s="306"/>
-      <c r="C82" s="306"/>
-      <c r="D82" s="306"/>
-      <c r="E82" s="306"/>
+    <row r="82" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="321"/>
+      <c r="B82" s="321"/>
+      <c r="C82" s="321"/>
+      <c r="D82" s="321"/>
+      <c r="E82" s="321"/>
       <c r="F82" s="271" t="s">
         <v>362</v>
       </c>
       <c r="G82" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="H82" s="306"/>
-      <c r="I82" s="306"/>
-      <c r="J82" s="394"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="366" t="s">
+      <c r="H82" s="321"/>
+      <c r="I82" s="321"/>
+      <c r="J82" s="323"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="324" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="372" t="s">
+      <c r="B83" s="294" t="s">
         <v>392</v>
       </c>
-      <c r="C83" s="395"/>
-      <c r="D83" s="397">
+      <c r="C83" s="326"/>
+      <c r="D83" s="297">
         <v>43961</v>
       </c>
-      <c r="E83" s="378" t="s">
+      <c r="E83" s="308" t="s">
         <v>266</v>
       </c>
       <c r="F83" s="274" t="s">
@@ -6251,17 +6249,17 @@
       <c r="H83" s="264" t="s">
         <v>423</v>
       </c>
-      <c r="I83" s="308" t="s">
+      <c r="I83" s="310" t="s">
         <v>436</v>
       </c>
-      <c r="J83" s="327"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="367"/>
-      <c r="B84" s="371"/>
-      <c r="C84" s="396"/>
-      <c r="D84" s="354"/>
-      <c r="E84" s="379"/>
+      <c r="J83" s="312"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="325"/>
+      <c r="B84" s="295"/>
+      <c r="C84" s="317"/>
+      <c r="D84" s="298"/>
+      <c r="E84" s="309"/>
       <c r="F84" s="6" t="s">
         <v>9</v>
       </c>
@@ -6271,21 +6269,21 @@
       <c r="H84" s="265" t="s">
         <v>424</v>
       </c>
-      <c r="I84" s="309"/>
-      <c r="J84" s="328"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="368" t="s">
+      <c r="I84" s="311"/>
+      <c r="J84" s="313"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="314" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="372" t="s">
+      <c r="B85" s="294" t="s">
         <v>392</v>
       </c>
-      <c r="C85" s="398"/>
-      <c r="D85" s="397">
+      <c r="C85" s="316"/>
+      <c r="D85" s="297">
         <v>43961</v>
       </c>
-      <c r="E85" s="327" t="s">
+      <c r="E85" s="312" t="s">
         <v>267</v>
       </c>
       <c r="F85" s="275" t="s">
@@ -6294,42 +6292,42 @@
       <c r="G85" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="H85" s="353" t="s">
+      <c r="H85" s="318" t="s">
         <v>427</v>
       </c>
-      <c r="I85" s="399" t="s">
+      <c r="I85" s="319" t="s">
         <v>435</v>
       </c>
-      <c r="J85" s="327"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="369"/>
-      <c r="B86" s="371"/>
-      <c r="C86" s="396"/>
-      <c r="D86" s="354"/>
-      <c r="E86" s="328"/>
+      <c r="J85" s="312"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="315"/>
+      <c r="B86" s="295"/>
+      <c r="C86" s="317"/>
+      <c r="D86" s="298"/>
+      <c r="E86" s="313"/>
       <c r="F86" s="263" t="s">
         <v>426</v>
       </c>
       <c r="G86" s="267" t="s">
         <v>12</v>
       </c>
-      <c r="H86" s="354"/>
-      <c r="I86" s="400"/>
-      <c r="J86" s="328"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="307" t="s">
+      <c r="H86" s="298"/>
+      <c r="I86" s="320"/>
+      <c r="J86" s="313"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="372" t="s">
+      <c r="B87" s="294" t="s">
         <v>392</v>
       </c>
-      <c r="C87" s="294"/>
-      <c r="D87" s="397">
+      <c r="C87" s="296"/>
+      <c r="D87" s="297">
         <v>43961</v>
       </c>
-      <c r="E87" s="359" t="s">
+      <c r="E87" s="299" t="s">
         <v>268</v>
       </c>
       <c r="F87" s="277" t="s">
@@ -6338,74 +6336,74 @@
       <c r="G87" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H87" s="402" t="s">
+      <c r="H87" s="302" t="s">
         <v>432</v>
       </c>
-      <c r="I87" s="403" t="s">
+      <c r="I87" s="307" t="s">
         <v>434</v>
       </c>
-      <c r="J87" s="293"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="307"/>
-      <c r="B88" s="372"/>
-      <c r="C88" s="294"/>
-      <c r="D88" s="397"/>
-      <c r="E88" s="401"/>
+      <c r="J87" s="306"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="293"/>
+      <c r="B88" s="294"/>
+      <c r="C88" s="296"/>
+      <c r="D88" s="297"/>
+      <c r="E88" s="300"/>
       <c r="F88" s="264" t="s">
         <v>429</v>
       </c>
       <c r="G88" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="H88" s="402"/>
-      <c r="I88" s="311"/>
-      <c r="J88" s="293"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="307"/>
-      <c r="B89" s="372"/>
-      <c r="C89" s="294"/>
-      <c r="D89" s="397"/>
-      <c r="E89" s="401"/>
+      <c r="H88" s="302"/>
+      <c r="I88" s="304"/>
+      <c r="J88" s="306"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="293"/>
+      <c r="B89" s="294"/>
+      <c r="C89" s="296"/>
+      <c r="D89" s="297"/>
+      <c r="E89" s="300"/>
       <c r="F89" s="264" t="s">
         <v>32</v>
       </c>
       <c r="G89" s="267" t="s">
         <v>12</v>
       </c>
-      <c r="H89" s="402"/>
-      <c r="I89" s="311"/>
-      <c r="J89" s="293"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="307"/>
-      <c r="B90" s="371"/>
-      <c r="C90" s="294"/>
-      <c r="D90" s="354"/>
-      <c r="E90" s="360"/>
+      <c r="H89" s="302"/>
+      <c r="I89" s="304"/>
+      <c r="J89" s="306"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="293"/>
+      <c r="B90" s="295"/>
+      <c r="C90" s="296"/>
+      <c r="D90" s="298"/>
+      <c r="E90" s="301"/>
       <c r="F90" s="262" t="s">
         <v>430</v>
       </c>
       <c r="G90" s="268" t="s">
         <v>431</v>
       </c>
-      <c r="H90" s="402"/>
-      <c r="I90" s="312"/>
-      <c r="J90" s="293"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="307" t="s">
+      <c r="H90" s="302"/>
+      <c r="I90" s="305"/>
+      <c r="J90" s="306"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="293" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="372" t="s">
+      <c r="B91" s="294" t="s">
         <v>392</v>
       </c>
-      <c r="C91" s="294"/>
-      <c r="D91" s="397">
+      <c r="C91" s="296"/>
+      <c r="D91" s="297">
         <v>43961</v>
       </c>
-      <c r="E91" s="359" t="s">
+      <c r="E91" s="299" t="s">
         <v>268</v>
       </c>
       <c r="F91" s="277" t="s">
@@ -6414,74 +6412,74 @@
       <c r="G91" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="402" t="s">
+      <c r="H91" s="302" t="s">
         <v>444</v>
       </c>
-      <c r="I91" s="310" t="s">
+      <c r="I91" s="303" t="s">
         <v>433</v>
       </c>
-      <c r="J91" s="293"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="307"/>
-      <c r="B92" s="372"/>
-      <c r="C92" s="294"/>
-      <c r="D92" s="397"/>
-      <c r="E92" s="401"/>
+      <c r="J91" s="306"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="293"/>
+      <c r="B92" s="294"/>
+      <c r="C92" s="296"/>
+      <c r="D92" s="297"/>
+      <c r="E92" s="300"/>
       <c r="F92" s="264" t="s">
         <v>35</v>
       </c>
       <c r="G92" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="H92" s="402"/>
-      <c r="I92" s="311"/>
-      <c r="J92" s="293"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="307"/>
-      <c r="B93" s="372"/>
-      <c r="C93" s="294"/>
-      <c r="D93" s="397"/>
-      <c r="E93" s="401"/>
+      <c r="H92" s="302"/>
+      <c r="I92" s="304"/>
+      <c r="J92" s="306"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="293"/>
+      <c r="B93" s="294"/>
+      <c r="C93" s="296"/>
+      <c r="D93" s="297"/>
+      <c r="E93" s="300"/>
       <c r="F93" s="264" t="s">
         <v>36</v>
       </c>
       <c r="G93" s="267" t="s">
         <v>12</v>
       </c>
-      <c r="H93" s="402"/>
-      <c r="I93" s="311"/>
-      <c r="J93" s="293"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="307"/>
-      <c r="B94" s="371"/>
-      <c r="C94" s="294"/>
-      <c r="D94" s="354"/>
-      <c r="E94" s="360"/>
+      <c r="H93" s="302"/>
+      <c r="I93" s="304"/>
+      <c r="J93" s="306"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="293"/>
+      <c r="B94" s="295"/>
+      <c r="C94" s="296"/>
+      <c r="D94" s="298"/>
+      <c r="E94" s="301"/>
       <c r="F94" s="262" t="s">
         <v>443</v>
       </c>
       <c r="G94" s="268" t="s">
         <v>431</v>
       </c>
-      <c r="H94" s="402"/>
-      <c r="I94" s="312"/>
-      <c r="J94" s="293"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="307" t="s">
+      <c r="H94" s="302"/>
+      <c r="I94" s="305"/>
+      <c r="J94" s="306"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="372" t="s">
+      <c r="B95" s="294" t="s">
         <v>392</v>
       </c>
-      <c r="C95" s="294"/>
-      <c r="D95" s="397">
+      <c r="C95" s="296"/>
+      <c r="D95" s="297">
         <v>43961</v>
       </c>
-      <c r="E95" s="359" t="s">
+      <c r="E95" s="299" t="s">
         <v>439</v>
       </c>
       <c r="F95" s="277" t="s">
@@ -6490,74 +6488,74 @@
       <c r="G95" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="402" t="s">
+      <c r="H95" s="302" t="s">
         <v>438</v>
       </c>
-      <c r="I95" s="310" t="s">
+      <c r="I95" s="303" t="s">
         <v>437</v>
       </c>
-      <c r="J95" s="293"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="307"/>
-      <c r="B96" s="372"/>
-      <c r="C96" s="294"/>
-      <c r="D96" s="397"/>
-      <c r="E96" s="401"/>
+      <c r="J95" s="306"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="293"/>
+      <c r="B96" s="294"/>
+      <c r="C96" s="296"/>
+      <c r="D96" s="297"/>
+      <c r="E96" s="300"/>
       <c r="F96" s="264" t="s">
         <v>27</v>
       </c>
       <c r="G96" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="H96" s="402"/>
-      <c r="I96" s="311"/>
-      <c r="J96" s="293"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="307"/>
-      <c r="B97" s="372"/>
-      <c r="C97" s="294"/>
-      <c r="D97" s="397"/>
-      <c r="E97" s="401"/>
+      <c r="H96" s="302"/>
+      <c r="I96" s="304"/>
+      <c r="J96" s="306"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="293"/>
+      <c r="B97" s="294"/>
+      <c r="C97" s="296"/>
+      <c r="D97" s="297"/>
+      <c r="E97" s="300"/>
       <c r="F97" s="264" t="s">
         <v>28</v>
       </c>
       <c r="G97" s="267" t="s">
         <v>12</v>
       </c>
-      <c r="H97" s="402"/>
-      <c r="I97" s="311"/>
-      <c r="J97" s="293"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="307"/>
-      <c r="B98" s="371"/>
-      <c r="C98" s="294"/>
-      <c r="D98" s="354"/>
-      <c r="E98" s="360"/>
+      <c r="H97" s="302"/>
+      <c r="I97" s="304"/>
+      <c r="J97" s="306"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="293"/>
+      <c r="B98" s="295"/>
+      <c r="C98" s="296"/>
+      <c r="D98" s="298"/>
+      <c r="E98" s="301"/>
       <c r="F98" s="262" t="s">
         <v>441</v>
       </c>
       <c r="G98" s="268" t="s">
         <v>431</v>
       </c>
-      <c r="H98" s="402"/>
-      <c r="I98" s="312"/>
-      <c r="J98" s="293"/>
-    </row>
-    <row r="99" spans="1:10" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="293" t="s">
+      <c r="H98" s="302"/>
+      <c r="I98" s="305"/>
+      <c r="J98" s="306"/>
+    </row>
+    <row r="99" spans="1:10" s="249" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="306" t="s">
         <v>359</v>
       </c>
-      <c r="B99" s="293" t="s">
+      <c r="B99" s="306" t="s">
         <v>365</v>
       </c>
-      <c r="C99" s="294"/>
-      <c r="D99" s="295">
+      <c r="C99" s="296"/>
+      <c r="D99" s="335">
         <v>44116</v>
       </c>
-      <c r="E99" s="296" t="s">
+      <c r="E99" s="336" t="s">
         <v>558</v>
       </c>
       <c r="F99" s="273" t="s">
@@ -6566,36 +6564,294 @@
       <c r="G99" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="293" t="s">
+      <c r="H99" s="306" t="s">
         <v>363</v>
       </c>
-      <c r="I99" s="293" t="s">
+      <c r="I99" s="306" t="s">
         <v>398</v>
       </c>
-      <c r="J99" s="297" t="s">
+      <c r="J99" s="333" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="293"/>
-      <c r="B100" s="293"/>
-      <c r="C100" s="294"/>
-      <c r="D100" s="293"/>
-      <c r="E100" s="296"/>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="306"/>
+      <c r="B100" s="306"/>
+      <c r="C100" s="296"/>
+      <c r="D100" s="306"/>
+      <c r="E100" s="336"/>
       <c r="F100" s="272" t="s">
         <v>362</v>
       </c>
       <c r="G100" s="272" t="s">
         <v>12</v>
       </c>
-      <c r="H100" s="293"/>
-      <c r="I100" s="293"/>
-      <c r="J100" s="297"/>
+      <c r="H100" s="306"/>
+      <c r="I100" s="306"/>
+      <c r="J100" s="333"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J82"/>
+  <autoFilter ref="A4:J82" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <mergeCells count="282">
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="D83:D84"/>
     <mergeCell ref="A95:A98"/>
     <mergeCell ref="B95:B98"/>
     <mergeCell ref="C95:C98"/>
@@ -6620,264 +6876,6 @@
     <mergeCell ref="H91:H94"/>
     <mergeCell ref="I91:I94"/>
     <mergeCell ref="J91:J94"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6885,7 +6883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,39 +6891,39 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="86.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="18.5703125" style="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="18.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="64" t="s">
         <v>161</v>
       </c>
       <c r="C1" s="65"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="68" t="s">
         <v>162</v>
       </c>
       <c r="C2" s="66"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="69" t="s">
         <v>163</v>
       </c>
       <c r="C3" s="67"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -6952,16 +6950,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="364" t="s">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="372" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="401" t="s">
+      <c r="B5" s="300" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="405"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="364" t="s">
+      <c r="C5" s="409"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="372" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="51" t="s">
@@ -6970,81 +6968,81 @@
       <c r="G5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="413" t="s">
+      <c r="H5" s="414" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="327"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="364"/>
-      <c r="B6" s="401"/>
-      <c r="C6" s="405"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="364"/>
+      <c r="I5" s="312"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="372"/>
+      <c r="B6" s="300"/>
+      <c r="C6" s="409"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="372"/>
       <c r="F6" s="51" t="s">
         <v>73</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="414"/>
-      <c r="I6" s="335"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="364"/>
-      <c r="B7" s="401"/>
-      <c r="C7" s="405"/>
-      <c r="D7" s="363"/>
-      <c r="E7" s="364"/>
+      <c r="H6" s="415"/>
+      <c r="I6" s="388"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="372"/>
+      <c r="B7" s="300"/>
+      <c r="C7" s="409"/>
+      <c r="D7" s="371"/>
+      <c r="E7" s="372"/>
       <c r="F7" s="51" t="s">
         <v>75</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="414"/>
-      <c r="I7" s="335"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="364"/>
-      <c r="B8" s="401"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="364"/>
+      <c r="H7" s="415"/>
+      <c r="I7" s="388"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="372"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="409"/>
+      <c r="D8" s="371"/>
+      <c r="E8" s="372"/>
       <c r="F8" s="51" t="s">
         <v>77</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="414"/>
-      <c r="I8" s="335"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="365"/>
-      <c r="B9" s="360"/>
-      <c r="C9" s="406"/>
-      <c r="D9" s="354"/>
-      <c r="E9" s="365"/>
+      <c r="H8" s="415"/>
+      <c r="I8" s="388"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="373"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="410"/>
+      <c r="D9" s="298"/>
+      <c r="E9" s="373"/>
       <c r="F9" s="51" t="s">
         <v>78</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="415"/>
-      <c r="I9" s="328"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="364" t="s">
+      <c r="H9" s="416"/>
+      <c r="I9" s="313"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="372" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="401" t="s">
+      <c r="B10" s="300" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="405"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="364" t="s">
+      <c r="C10" s="409"/>
+      <c r="D10" s="371"/>
+      <c r="E10" s="372" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="53" t="s">
@@ -7053,51 +7051,51 @@
       <c r="G10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="293" t="s">
+      <c r="H10" s="306" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="293"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="364"/>
-      <c r="B11" s="401"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="363"/>
-      <c r="E11" s="364"/>
+      <c r="I10" s="306"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="372"/>
+      <c r="B11" s="300"/>
+      <c r="C11" s="409"/>
+      <c r="D11" s="371"/>
+      <c r="E11" s="372"/>
       <c r="F11" s="54" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="293"/>
-      <c r="I11" s="293"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="365"/>
-      <c r="B12" s="360"/>
-      <c r="C12" s="406"/>
-      <c r="D12" s="354"/>
-      <c r="E12" s="365"/>
+      <c r="H11" s="306"/>
+      <c r="I11" s="306"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="373"/>
+      <c r="B12" s="301"/>
+      <c r="C12" s="410"/>
+      <c r="D12" s="298"/>
+      <c r="E12" s="373"/>
       <c r="F12" s="55" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="293"/>
-      <c r="I12" s="293"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="410" t="s">
+      <c r="H12" s="306"/>
+      <c r="I12" s="306"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="411" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="401" t="s">
+      <c r="B13" s="300" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="405"/>
-      <c r="D13" s="363"/>
-      <c r="E13" s="364" t="s">
+      <c r="C13" s="409"/>
+      <c r="D13" s="371"/>
+      <c r="E13" s="372" t="s">
         <v>81</v>
       </c>
       <c r="F13" s="53" t="s">
@@ -7106,51 +7104,51 @@
       <c r="G13" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="327" t="s">
+      <c r="H13" s="312" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="407"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="411"/>
-      <c r="B14" s="401"/>
-      <c r="C14" s="405"/>
-      <c r="D14" s="363"/>
-      <c r="E14" s="364"/>
+      <c r="I13" s="406"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="412"/>
+      <c r="B14" s="300"/>
+      <c r="C14" s="409"/>
+      <c r="D14" s="371"/>
+      <c r="E14" s="372"/>
       <c r="F14" s="54" t="s">
         <v>83</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="335"/>
-      <c r="I14" s="408"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="412"/>
-      <c r="B15" s="360"/>
-      <c r="C15" s="406"/>
-      <c r="D15" s="354"/>
-      <c r="E15" s="365"/>
+      <c r="H14" s="388"/>
+      <c r="I14" s="407"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="413"/>
+      <c r="B15" s="301"/>
+      <c r="C15" s="410"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="373"/>
       <c r="F15" s="55" t="s">
         <v>84</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="328"/>
-      <c r="I15" s="409"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="404" t="s">
+      <c r="H15" s="313"/>
+      <c r="I15" s="408"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="405" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="293" t="s">
+      <c r="B16" s="306" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="348"/>
-      <c r="D16" s="293"/>
-      <c r="E16" s="293" t="s">
+      <c r="C16" s="334"/>
+      <c r="D16" s="306"/>
+      <c r="E16" s="306" t="s">
         <v>87</v>
       </c>
       <c r="F16" s="56" t="s">
@@ -7159,81 +7157,81 @@
       <c r="G16" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="293" t="s">
+      <c r="H16" s="306" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="293"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="404"/>
-      <c r="B17" s="293"/>
-      <c r="C17" s="348"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="293"/>
+      <c r="I16" s="306"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="405"/>
+      <c r="B17" s="306"/>
+      <c r="C17" s="334"/>
+      <c r="D17" s="306"/>
+      <c r="E17" s="306"/>
       <c r="F17" s="54" t="s">
         <v>92</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="293"/>
-      <c r="I17" s="293"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="404"/>
-      <c r="B18" s="293"/>
-      <c r="C18" s="348"/>
-      <c r="D18" s="293"/>
-      <c r="E18" s="293"/>
+      <c r="H17" s="306"/>
+      <c r="I17" s="306"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="405"/>
+      <c r="B18" s="306"/>
+      <c r="C18" s="334"/>
+      <c r="D18" s="306"/>
+      <c r="E18" s="306"/>
       <c r="F18" s="54" t="s">
         <v>93</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="293"/>
-      <c r="I18" s="293"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
-      <c r="B19" s="293"/>
-      <c r="C19" s="348"/>
-      <c r="D19" s="293"/>
-      <c r="E19" s="293"/>
+      <c r="H18" s="306"/>
+      <c r="I18" s="306"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="405"/>
+      <c r="B19" s="306"/>
+      <c r="C19" s="334"/>
+      <c r="D19" s="306"/>
+      <c r="E19" s="306"/>
       <c r="F19" s="54" t="s">
         <v>94</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="293"/>
-      <c r="I19" s="293"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
-      <c r="B20" s="293"/>
-      <c r="C20" s="348"/>
-      <c r="D20" s="293"/>
-      <c r="E20" s="293"/>
+      <c r="H19" s="306"/>
+      <c r="I19" s="306"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="405"/>
+      <c r="B20" s="306"/>
+      <c r="C20" s="334"/>
+      <c r="D20" s="306"/>
+      <c r="E20" s="306"/>
       <c r="F20" s="57" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="293"/>
-      <c r="I20" s="293"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="404" t="s">
+      <c r="H20" s="306"/>
+      <c r="I20" s="306"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="405" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="389" t="s">
+      <c r="B21" s="331" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="387"/>
-      <c r="D21" s="389"/>
-      <c r="E21" s="389" t="s">
+      <c r="C21" s="329"/>
+      <c r="D21" s="331"/>
+      <c r="E21" s="331" t="s">
         <v>130</v>
       </c>
       <c r="F21" s="59" t="s">
@@ -7242,81 +7240,90 @@
       <c r="G21" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="416" t="s">
+      <c r="H21" s="404" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="389" t="s">
+      <c r="I21" s="331" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="404"/>
-      <c r="B22" s="389"/>
-      <c r="C22" s="387"/>
-      <c r="D22" s="389"/>
-      <c r="E22" s="389"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="405"/>
+      <c r="B22" s="331"/>
+      <c r="C22" s="329"/>
+      <c r="D22" s="331"/>
+      <c r="E22" s="331"/>
       <c r="F22" s="61" t="s">
         <v>131</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="416"/>
-      <c r="I22" s="389"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="404"/>
-      <c r="B23" s="389"/>
-      <c r="C23" s="387"/>
-      <c r="D23" s="389"/>
-      <c r="E23" s="389"/>
+      <c r="H22" s="404"/>
+      <c r="I22" s="331"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="405"/>
+      <c r="B23" s="331"/>
+      <c r="C23" s="329"/>
+      <c r="D23" s="331"/>
+      <c r="E23" s="331"/>
       <c r="F23" s="61" t="s">
         <v>134</v>
       </c>
       <c r="G23" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="416"/>
-      <c r="I23" s="389"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="404"/>
-      <c r="B24" s="389"/>
-      <c r="C24" s="387"/>
-      <c r="D24" s="389"/>
-      <c r="E24" s="389"/>
+      <c r="H23" s="404"/>
+      <c r="I23" s="331"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="405"/>
+      <c r="B24" s="331"/>
+      <c r="C24" s="329"/>
+      <c r="D24" s="331"/>
+      <c r="E24" s="331"/>
       <c r="F24" s="61" t="s">
         <v>135</v>
       </c>
       <c r="G24" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="416"/>
-      <c r="I24" s="389"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="404"/>
-      <c r="B25" s="389"/>
-      <c r="C25" s="387"/>
-      <c r="D25" s="389"/>
-      <c r="E25" s="389"/>
+      <c r="H24" s="404"/>
+      <c r="I24" s="331"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="405"/>
+      <c r="B25" s="331"/>
+      <c r="C25" s="329"/>
+      <c r="D25" s="331"/>
+      <c r="E25" s="331"/>
       <c r="F25" s="62" t="s">
         <v>137</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="416"/>
-      <c r="I25" s="389"/>
+      <c r="H25" s="404"/>
+      <c r="I25" s="331"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="35">
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="H10:H12"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="I13:I15"/>
@@ -7333,20 +7340,11 @@
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I16:I20"/>
     <mergeCell ref="H5:H9"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="C21:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7354,7 +7352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7364,20 +7362,20 @@
       <selection pane="bottomRight" activeCell="C21" sqref="C21:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="256" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" style="256" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="78" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="191"/>
       <c r="C1" s="192" t="s">
         <v>161</v>
@@ -7389,7 +7387,7 @@
       <c r="H1" s="152"/>
       <c r="I1" s="193"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="191"/>
       <c r="C2" s="76" t="s">
         <v>162</v>
@@ -7401,7 +7399,7 @@
       <c r="H2" s="152"/>
       <c r="I2" s="193"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="191"/>
       <c r="C3" s="78" t="s">
         <v>163</v>
@@ -7413,7 +7411,7 @@
       <c r="H3" s="152"/>
       <c r="I3" s="193"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="257" t="s">
         <v>0</v>
       </c>
@@ -7440,18 +7438,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="423" t="s">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="425" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="424" t="s">
+      <c r="B5" s="426" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="433"/>
-      <c r="D5" s="425">
+      <c r="C5" s="417"/>
+      <c r="D5" s="418">
         <v>43999</v>
       </c>
-      <c r="E5" s="422" t="s">
+      <c r="E5" s="419" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="42" t="s">
@@ -7460,57 +7458,57 @@
       <c r="G5" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="426" t="s">
+      <c r="H5" s="421" t="s">
         <v>117</v>
       </c>
       <c r="I5" s="196" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="423"/>
-      <c r="B6" s="424"/>
-      <c r="C6" s="433"/>
-      <c r="D6" s="422"/>
-      <c r="E6" s="422"/>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="425"/>
+      <c r="B6" s="426"/>
+      <c r="C6" s="417"/>
+      <c r="D6" s="419"/>
+      <c r="E6" s="419"/>
       <c r="F6" s="43" t="s">
         <v>114</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="414"/>
+      <c r="H6" s="415"/>
       <c r="I6" s="197" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="423"/>
-      <c r="B7" s="424"/>
-      <c r="C7" s="433"/>
-      <c r="D7" s="422"/>
-      <c r="E7" s="422"/>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="425"/>
+      <c r="B7" s="426"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="419"/>
+      <c r="E7" s="419"/>
       <c r="F7" s="44" t="s">
         <v>116</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="415"/>
+      <c r="H7" s="416"/>
       <c r="I7" s="198"/>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="436" t="s">
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="420" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="424" t="s">
+      <c r="B8" s="426" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="433"/>
-      <c r="D8" s="425">
+      <c r="C8" s="417"/>
+      <c r="D8" s="418">
         <v>44019</v>
       </c>
-      <c r="E8" s="422" t="s">
+      <c r="E8" s="419" t="s">
         <v>120</v>
       </c>
       <c r="F8" s="47" t="s">
@@ -7519,66 +7517,66 @@
       <c r="G8" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="437" t="s">
+      <c r="H8" s="422" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="422"/>
-    </row>
-    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="436"/>
-      <c r="B9" s="424"/>
-      <c r="C9" s="433"/>
-      <c r="D9" s="425"/>
-      <c r="E9" s="422"/>
+      <c r="I8" s="419"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="420"/>
+      <c r="B9" s="426"/>
+      <c r="C9" s="417"/>
+      <c r="D9" s="418"/>
+      <c r="E9" s="419"/>
       <c r="F9" s="48" t="s">
         <v>123</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="438"/>
-      <c r="I9" s="422"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="436"/>
-      <c r="B10" s="424"/>
-      <c r="C10" s="433"/>
-      <c r="D10" s="425"/>
-      <c r="E10" s="422"/>
-      <c r="F10" s="434" t="s">
+      <c r="H9" s="423"/>
+      <c r="I9" s="419"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="420"/>
+      <c r="B10" s="426"/>
+      <c r="C10" s="417"/>
+      <c r="D10" s="418"/>
+      <c r="E10" s="419"/>
+      <c r="F10" s="427" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="431" t="s">
+      <c r="G10" s="429" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="438" t="s">
+      <c r="H10" s="423" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="422"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="436"/>
-      <c r="B11" s="424"/>
-      <c r="C11" s="433"/>
-      <c r="D11" s="425"/>
-      <c r="E11" s="422"/>
-      <c r="F11" s="435"/>
-      <c r="G11" s="432"/>
-      <c r="H11" s="439"/>
-      <c r="I11" s="422"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="423" t="s">
+      <c r="I10" s="419"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="420"/>
+      <c r="B11" s="426"/>
+      <c r="C11" s="417"/>
+      <c r="D11" s="418"/>
+      <c r="E11" s="419"/>
+      <c r="F11" s="428"/>
+      <c r="G11" s="430"/>
+      <c r="H11" s="424"/>
+      <c r="I11" s="419"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="425" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="424" t="s">
+      <c r="B12" s="426" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="348"/>
-      <c r="D12" s="425">
+      <c r="C12" s="334"/>
+      <c r="D12" s="418">
         <v>44032</v>
       </c>
-      <c r="E12" s="424" t="s">
+      <c r="E12" s="426" t="s">
         <v>99</v>
       </c>
       <c r="F12" s="45" t="s">
@@ -7587,59 +7585,59 @@
       <c r="G12" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="426" t="s">
+      <c r="H12" s="421" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="422"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="423"/>
-      <c r="B13" s="424"/>
-      <c r="C13" s="348"/>
-      <c r="D13" s="425"/>
-      <c r="E13" s="424"/>
+      <c r="I12" s="419"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="425"/>
+      <c r="B13" s="426"/>
+      <c r="C13" s="334"/>
+      <c r="D13" s="418"/>
+      <c r="E13" s="426"/>
       <c r="F13" s="46" t="s">
         <v>102</v>
       </c>
       <c r="G13" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="414"/>
-      <c r="I13" s="422"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="423"/>
-      <c r="B14" s="424"/>
-      <c r="C14" s="348"/>
-      <c r="D14" s="425"/>
-      <c r="E14" s="424"/>
+      <c r="H13" s="415"/>
+      <c r="I13" s="419"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="425"/>
+      <c r="B14" s="426"/>
+      <c r="C14" s="334"/>
+      <c r="D14" s="418"/>
+      <c r="E14" s="426"/>
       <c r="F14" s="46" t="s">
         <v>104</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="414" t="s">
+      <c r="H14" s="415" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="422"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="423"/>
-      <c r="B15" s="424"/>
-      <c r="C15" s="348"/>
-      <c r="D15" s="425"/>
-      <c r="E15" s="424"/>
+      <c r="I14" s="419"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="425"/>
+      <c r="B15" s="426"/>
+      <c r="C15" s="334"/>
+      <c r="D15" s="418"/>
+      <c r="E15" s="426"/>
       <c r="F15" s="40" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="415"/>
-      <c r="I15" s="422"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="416"/>
+      <c r="I15" s="419"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="258" t="s">
         <v>97</v>
       </c>
@@ -7660,18 +7658,18 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="430" t="s">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="431" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="297" t="s">
+      <c r="B17" s="333" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="348"/>
-      <c r="D17" s="295">
+      <c r="C17" s="334"/>
+      <c r="D17" s="335">
         <v>44102</v>
       </c>
-      <c r="E17" s="293" t="s">
+      <c r="E17" s="306" t="s">
         <v>204</v>
       </c>
       <c r="F17" s="38" t="s">
@@ -7680,66 +7678,66 @@
       <c r="G17" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="426" t="s">
+      <c r="H17" s="421" t="s">
         <v>208</v>
       </c>
-      <c r="I17" s="327"/>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="430"/>
-      <c r="B18" s="297"/>
-      <c r="C18" s="348"/>
-      <c r="D18" s="293"/>
-      <c r="E18" s="293"/>
+      <c r="I17" s="312"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="431"/>
+      <c r="B18" s="333"/>
+      <c r="C18" s="334"/>
+      <c r="D18" s="306"/>
+      <c r="E18" s="306"/>
       <c r="F18" s="35" t="s">
         <v>206</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="414"/>
-      <c r="I18" s="335"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="430"/>
-      <c r="B19" s="297"/>
-      <c r="C19" s="348"/>
-      <c r="D19" s="293"/>
-      <c r="E19" s="293"/>
-      <c r="F19" s="431" t="s">
+      <c r="H18" s="415"/>
+      <c r="I18" s="388"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="431"/>
+      <c r="B19" s="333"/>
+      <c r="C19" s="334"/>
+      <c r="D19" s="306"/>
+      <c r="E19" s="306"/>
+      <c r="F19" s="429" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="431" t="s">
+      <c r="G19" s="429" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="414" t="s">
+      <c r="H19" s="415" t="s">
         <v>209</v>
       </c>
-      <c r="I19" s="335"/>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="430"/>
-      <c r="B20" s="297"/>
-      <c r="C20" s="348"/>
-      <c r="D20" s="293"/>
-      <c r="E20" s="293"/>
-      <c r="F20" s="432"/>
-      <c r="G20" s="432"/>
-      <c r="H20" s="415"/>
-      <c r="I20" s="328"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="423" t="s">
+      <c r="I19" s="388"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="431"/>
+      <c r="B20" s="333"/>
+      <c r="C20" s="334"/>
+      <c r="D20" s="306"/>
+      <c r="E20" s="306"/>
+      <c r="F20" s="430"/>
+      <c r="G20" s="430"/>
+      <c r="H20" s="416"/>
+      <c r="I20" s="313"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="425" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="424" t="s">
+      <c r="B21" s="426" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="348"/>
-      <c r="D21" s="425">
+      <c r="C21" s="334"/>
+      <c r="D21" s="418">
         <v>44102</v>
       </c>
-      <c r="E21" s="422" t="s">
+      <c r="E21" s="419" t="s">
         <v>210</v>
       </c>
       <c r="F21" s="208" t="s">
@@ -7748,53 +7746,53 @@
       <c r="G21" s="209" t="s">
         <v>212</v>
       </c>
-      <c r="H21" s="426" t="s">
+      <c r="H21" s="421" t="s">
         <v>215</v>
       </c>
-      <c r="I21" s="427"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="423"/>
-      <c r="B22" s="424"/>
-      <c r="C22" s="348"/>
-      <c r="D22" s="422"/>
-      <c r="E22" s="422"/>
+      <c r="I21" s="432"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="425"/>
+      <c r="B22" s="426"/>
+      <c r="C22" s="334"/>
+      <c r="D22" s="419"/>
+      <c r="E22" s="419"/>
       <c r="F22" s="210" t="s">
         <v>213</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="414"/>
-      <c r="I22" s="428"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="423"/>
-      <c r="B23" s="424"/>
-      <c r="C23" s="348"/>
-      <c r="D23" s="422"/>
-      <c r="E23" s="422"/>
+      <c r="H22" s="415"/>
+      <c r="I22" s="433"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="425"/>
+      <c r="B23" s="426"/>
+      <c r="C23" s="334"/>
+      <c r="D23" s="419"/>
+      <c r="E23" s="419"/>
       <c r="F23" s="211" t="s">
         <v>214</v>
       </c>
       <c r="G23" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="415"/>
-      <c r="I23" s="429"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="423" t="s">
+      <c r="H23" s="416"/>
+      <c r="I23" s="434"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="425" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="424" t="s">
+      <c r="B24" s="426" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="348"/>
-      <c r="D24" s="425">
+      <c r="C24" s="334"/>
+      <c r="D24" s="418">
         <v>44075</v>
       </c>
-      <c r="E24" s="424" t="s">
+      <c r="E24" s="426" t="s">
         <v>388</v>
       </c>
       <c r="F24" s="46" t="s">
@@ -7803,38 +7801,38 @@
       <c r="G24" s="242" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="414" t="s">
+      <c r="H24" s="415" t="s">
         <v>391</v>
       </c>
-      <c r="I24" s="422"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="423"/>
-      <c r="B25" s="424"/>
-      <c r="C25" s="348"/>
-      <c r="D25" s="425"/>
-      <c r="E25" s="424"/>
+      <c r="I24" s="419"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="425"/>
+      <c r="B25" s="426"/>
+      <c r="C25" s="334"/>
+      <c r="D25" s="418"/>
+      <c r="E25" s="426"/>
       <c r="F25" s="40" t="s">
         <v>390</v>
       </c>
       <c r="G25" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="415"/>
-      <c r="I25" s="422"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="417" t="s">
+      <c r="H25" s="416"/>
+      <c r="I25" s="419"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="435" t="s">
         <v>400</v>
       </c>
-      <c r="B26" s="386" t="s">
+      <c r="B26" s="328" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="421"/>
-      <c r="D26" s="388">
+      <c r="C26" s="439"/>
+      <c r="D26" s="330">
         <v>44102</v>
       </c>
-      <c r="E26" s="420" t="s">
+      <c r="E26" s="438" t="s">
         <v>401</v>
       </c>
       <c r="F26" s="254" t="s">
@@ -7843,73 +7841,116 @@
       <c r="G26" s="250" t="s">
         <v>212</v>
       </c>
-      <c r="H26" s="418" t="s">
+      <c r="H26" s="436" t="s">
         <v>410</v>
       </c>
-      <c r="I26" s="419"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="417"/>
-      <c r="B27" s="386"/>
-      <c r="C27" s="421"/>
-      <c r="D27" s="388"/>
-      <c r="E27" s="420"/>
+      <c r="I26" s="437"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="435"/>
+      <c r="B27" s="328"/>
+      <c r="C27" s="439"/>
+      <c r="D27" s="330"/>
+      <c r="E27" s="438"/>
       <c r="F27" s="252" t="s">
         <v>403</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="418"/>
-      <c r="I27" s="419"/>
-    </row>
-    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A28" s="417"/>
-      <c r="B28" s="386"/>
-      <c r="C28" s="421"/>
-      <c r="D28" s="388"/>
-      <c r="E28" s="420"/>
+      <c r="H27" s="436"/>
+      <c r="I27" s="437"/>
+    </row>
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="435"/>
+      <c r="B28" s="328"/>
+      <c r="C28" s="439"/>
+      <c r="D28" s="330"/>
+      <c r="E28" s="438"/>
       <c r="F28" s="252" t="s">
         <v>404</v>
       </c>
       <c r="G28" s="251" t="s">
         <v>405</v>
       </c>
-      <c r="H28" s="418"/>
-      <c r="I28" s="419"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="417"/>
-      <c r="B29" s="386"/>
-      <c r="C29" s="421"/>
-      <c r="D29" s="388"/>
-      <c r="E29" s="420"/>
+      <c r="H28" s="436"/>
+      <c r="I28" s="437"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="435"/>
+      <c r="B29" s="328"/>
+      <c r="C29" s="439"/>
+      <c r="D29" s="330"/>
+      <c r="E29" s="438"/>
       <c r="F29" s="252" t="s">
         <v>406</v>
       </c>
       <c r="G29" s="252" t="s">
         <v>407</v>
       </c>
-      <c r="H29" s="418"/>
-      <c r="I29" s="419"/>
-    </row>
-    <row r="30" spans="1:9" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="417"/>
-      <c r="B30" s="386"/>
-      <c r="C30" s="421"/>
-      <c r="D30" s="388"/>
-      <c r="E30" s="420"/>
+      <c r="H29" s="436"/>
+      <c r="I29" s="437"/>
+    </row>
+    <row r="30" spans="1:9" ht="35.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="435"/>
+      <c r="B30" s="328"/>
+      <c r="C30" s="439"/>
+      <c r="D30" s="330"/>
+      <c r="E30" s="438"/>
       <c r="F30" s="255" t="s">
         <v>408</v>
       </c>
       <c r="G30" s="253" t="s">
         <v>409</v>
       </c>
-      <c r="H30" s="418"/>
-      <c r="I30" s="419"/>
+      <c r="H30" s="436"/>
+      <c r="I30" s="437"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="A8:A11"/>
@@ -7922,49 +7963,6 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="C26:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7972,7 +7970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7980,20 +7978,20 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="78" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="75" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="148"/>
       <c r="B1" s="153" t="s">
         <v>161</v>
@@ -8005,7 +8003,7 @@
       <c r="H1" s="148"/>
       <c r="I1" s="148"/>
     </row>
-    <row r="2" spans="1:9" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="75" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="148"/>
       <c r="B2" s="155" t="s">
         <v>162</v>
@@ -8017,7 +8015,7 @@
       <c r="H2" s="148"/>
       <c r="I2" s="148"/>
     </row>
-    <row r="3" spans="1:9" s="75" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="148"/>
       <c r="B3" s="157" t="s">
         <v>163</v>
@@ -8029,7 +8027,7 @@
       <c r="H3" s="148"/>
       <c r="I3" s="148"/>
     </row>
-    <row r="4" spans="1:9" s="80" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="80" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="159" t="s">
         <v>0</v>
       </c>
@@ -8056,18 +8054,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="420" t="s">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="438" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="420" t="s">
+      <c r="B5" s="438" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="387"/>
-      <c r="D5" s="442">
+      <c r="C5" s="329"/>
+      <c r="D5" s="443">
         <v>44043</v>
       </c>
-      <c r="E5" s="420" t="s">
+      <c r="E5" s="438" t="s">
         <v>324</v>
       </c>
       <c r="F5" s="224" t="s">
@@ -8076,53 +8074,53 @@
       <c r="G5" s="224" t="s">
         <v>212</v>
       </c>
-      <c r="H5" s="420" t="s">
+      <c r="H5" s="438" t="s">
         <v>326</v>
       </c>
-      <c r="I5" s="389"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="420"/>
-      <c r="B6" s="420"/>
-      <c r="C6" s="387"/>
-      <c r="D6" s="442"/>
-      <c r="E6" s="420"/>
+      <c r="I5" s="331"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="438"/>
+      <c r="B6" s="438"/>
+      <c r="C6" s="329"/>
+      <c r="D6" s="443"/>
+      <c r="E6" s="438"/>
       <c r="F6" s="225" t="s">
         <v>327</v>
       </c>
       <c r="G6" s="223" t="s">
         <v>328</v>
       </c>
-      <c r="H6" s="420"/>
-      <c r="I6" s="389"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="420"/>
-      <c r="B7" s="420"/>
-      <c r="C7" s="387"/>
-      <c r="D7" s="442"/>
-      <c r="E7" s="420"/>
+      <c r="H6" s="438"/>
+      <c r="I6" s="331"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="438"/>
+      <c r="B7" s="438"/>
+      <c r="C7" s="329"/>
+      <c r="D7" s="443"/>
+      <c r="E7" s="438"/>
       <c r="F7" s="226" t="s">
         <v>330</v>
       </c>
       <c r="G7" s="226" t="s">
         <v>329</v>
       </c>
-      <c r="H7" s="420"/>
-      <c r="I7" s="389"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="420" t="s">
+      <c r="H7" s="438"/>
+      <c r="I7" s="331"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="438" t="s">
         <v>322</v>
       </c>
-      <c r="B8" s="420" t="s">
+      <c r="B8" s="438" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="387"/>
-      <c r="D8" s="442">
+      <c r="C8" s="329"/>
+      <c r="D8" s="443">
         <v>44095</v>
       </c>
-      <c r="E8" s="420" t="s">
+      <c r="E8" s="438" t="s">
         <v>324</v>
       </c>
       <c r="F8" s="224" t="s">
@@ -8131,70 +8129,70 @@
       <c r="G8" s="224" t="s">
         <v>212</v>
       </c>
-      <c r="H8" s="420" t="s">
+      <c r="H8" s="438" t="s">
         <v>323</v>
       </c>
-      <c r="I8" s="389" t="s">
+      <c r="I8" s="331" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="420"/>
-      <c r="B9" s="420"/>
-      <c r="C9" s="387"/>
-      <c r="D9" s="442"/>
-      <c r="E9" s="420"/>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="438"/>
+      <c r="B9" s="438"/>
+      <c r="C9" s="329"/>
+      <c r="D9" s="443"/>
+      <c r="E9" s="438"/>
       <c r="F9" s="225" t="s">
         <v>327</v>
       </c>
       <c r="G9" s="223" t="s">
         <v>328</v>
       </c>
-      <c r="H9" s="420"/>
-      <c r="I9" s="389"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="420"/>
-      <c r="B10" s="420"/>
-      <c r="C10" s="387"/>
-      <c r="D10" s="442"/>
-      <c r="E10" s="420"/>
+      <c r="H9" s="438"/>
+      <c r="I9" s="331"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A10" s="438"/>
+      <c r="B10" s="438"/>
+      <c r="C10" s="329"/>
+      <c r="D10" s="443"/>
+      <c r="E10" s="438"/>
       <c r="F10" s="230" t="s">
         <v>355</v>
       </c>
       <c r="G10" s="230" t="s">
         <v>356</v>
       </c>
-      <c r="H10" s="420"/>
-      <c r="I10" s="389"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="420"/>
-      <c r="B11" s="420"/>
-      <c r="C11" s="387"/>
-      <c r="D11" s="442"/>
-      <c r="E11" s="420"/>
+      <c r="H10" s="438"/>
+      <c r="I10" s="331"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="438"/>
+      <c r="B11" s="438"/>
+      <c r="C11" s="329"/>
+      <c r="D11" s="443"/>
+      <c r="E11" s="438"/>
       <c r="F11" s="226" t="s">
         <v>330</v>
       </c>
       <c r="G11" s="226" t="s">
         <v>329</v>
       </c>
-      <c r="H11" s="420"/>
-      <c r="I11" s="389"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="420" t="s">
+      <c r="H11" s="438"/>
+      <c r="I11" s="331"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="438" t="s">
         <v>332</v>
       </c>
-      <c r="B12" s="389" t="s">
+      <c r="B12" s="331" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="387"/>
-      <c r="D12" s="443">
+      <c r="C12" s="329"/>
+      <c r="D12" s="444">
         <v>44001</v>
       </c>
-      <c r="E12" s="389" t="s">
+      <c r="E12" s="331" t="s">
         <v>343</v>
       </c>
       <c r="F12" s="143" t="s">
@@ -8203,83 +8201,83 @@
       <c r="G12" s="227" t="s">
         <v>334</v>
       </c>
-      <c r="H12" s="419" t="s">
+      <c r="H12" s="437" t="s">
         <v>344</v>
       </c>
-      <c r="I12" s="419"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="420"/>
-      <c r="B13" s="389"/>
-      <c r="C13" s="387"/>
-      <c r="D13" s="389"/>
-      <c r="E13" s="389"/>
+      <c r="I12" s="437"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="438"/>
+      <c r="B13" s="331"/>
+      <c r="C13" s="329"/>
+      <c r="D13" s="331"/>
+      <c r="E13" s="331"/>
       <c r="F13" s="139" t="s">
         <v>335</v>
       </c>
       <c r="G13" s="228" t="s">
         <v>336</v>
       </c>
-      <c r="H13" s="419"/>
-      <c r="I13" s="419"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="420"/>
-      <c r="B14" s="389"/>
-      <c r="C14" s="387"/>
-      <c r="D14" s="389"/>
-      <c r="E14" s="389"/>
+      <c r="H13" s="437"/>
+      <c r="I13" s="437"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="438"/>
+      <c r="B14" s="331"/>
+      <c r="C14" s="329"/>
+      <c r="D14" s="331"/>
+      <c r="E14" s="331"/>
       <c r="F14" s="139" t="s">
         <v>337</v>
       </c>
       <c r="G14" s="228" t="s">
         <v>340</v>
       </c>
-      <c r="H14" s="419"/>
-      <c r="I14" s="419"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="420"/>
-      <c r="B15" s="389"/>
-      <c r="C15" s="387"/>
-      <c r="D15" s="389"/>
-      <c r="E15" s="389"/>
+      <c r="H14" s="437"/>
+      <c r="I14" s="437"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="438"/>
+      <c r="B15" s="331"/>
+      <c r="C15" s="329"/>
+      <c r="D15" s="331"/>
+      <c r="E15" s="331"/>
       <c r="F15" s="139" t="s">
         <v>338</v>
       </c>
       <c r="G15" s="228" t="s">
         <v>339</v>
       </c>
-      <c r="H15" s="419"/>
-      <c r="I15" s="419"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="420"/>
-      <c r="B16" s="389"/>
-      <c r="C16" s="387"/>
-      <c r="D16" s="389"/>
-      <c r="E16" s="389"/>
+      <c r="H15" s="437"/>
+      <c r="I15" s="437"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="438"/>
+      <c r="B16" s="331"/>
+      <c r="C16" s="329"/>
+      <c r="D16" s="331"/>
+      <c r="E16" s="331"/>
       <c r="F16" s="144" t="s">
         <v>341</v>
       </c>
       <c r="G16" s="229" t="s">
         <v>342</v>
       </c>
-      <c r="H16" s="419"/>
-      <c r="I16" s="419"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="444" t="s">
+      <c r="H16" s="437"/>
+      <c r="I16" s="437"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="440" t="s">
         <v>345</v>
       </c>
-      <c r="B17" s="389" t="s">
+      <c r="B17" s="331" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="387"/>
-      <c r="D17" s="389" t="s">
+      <c r="C17" s="329"/>
+      <c r="D17" s="331" t="s">
         <v>354</v>
       </c>
-      <c r="E17" s="389" t="s">
+      <c r="E17" s="331" t="s">
         <v>346</v>
       </c>
       <c r="F17" s="143" t="s">
@@ -8288,69 +8286,56 @@
       <c r="G17" s="175" t="s">
         <v>212</v>
       </c>
-      <c r="H17" s="440" t="s">
+      <c r="H17" s="441" t="s">
         <v>352</v>
       </c>
-      <c r="I17" s="389"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="444"/>
-      <c r="B18" s="389"/>
-      <c r="C18" s="387"/>
-      <c r="D18" s="389"/>
-      <c r="E18" s="389"/>
+      <c r="I17" s="331"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="440"/>
+      <c r="B18" s="331"/>
+      <c r="C18" s="329"/>
+      <c r="D18" s="331"/>
+      <c r="E18" s="331"/>
       <c r="F18" s="139" t="s">
         <v>350</v>
       </c>
       <c r="G18" s="141" t="s">
         <v>348</v>
       </c>
-      <c r="H18" s="441"/>
-      <c r="I18" s="389"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="444"/>
-      <c r="B19" s="389"/>
-      <c r="C19" s="387"/>
-      <c r="D19" s="389"/>
-      <c r="E19" s="389"/>
+      <c r="H18" s="442"/>
+      <c r="I18" s="331"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="440"/>
+      <c r="B19" s="331"/>
+      <c r="C19" s="329"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="331"/>
       <c r="F19" s="139"/>
       <c r="G19" s="141"/>
-      <c r="H19" s="308" t="s">
+      <c r="H19" s="310" t="s">
         <v>353</v>
       </c>
-      <c r="I19" s="389"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="444"/>
-      <c r="B20" s="389"/>
-      <c r="C20" s="387"/>
-      <c r="D20" s="389"/>
-      <c r="E20" s="389"/>
+      <c r="I19" s="331"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="440"/>
+      <c r="B20" s="331"/>
+      <c r="C20" s="329"/>
+      <c r="D20" s="331"/>
+      <c r="E20" s="331"/>
       <c r="F20" s="144" t="s">
         <v>351</v>
       </c>
       <c r="G20" s="142" t="s">
         <v>349</v>
       </c>
-      <c r="H20" s="309"/>
-      <c r="I20" s="389"/>
+      <c r="H20" s="311"/>
+      <c r="I20" s="331"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A8:A11"/>
     <mergeCell ref="I17:I20"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="E17:E20"/>
@@ -8367,6 +8352,19 @@
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8374,31 +8372,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51:D52"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45:C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="150" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" style="150" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" style="75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="150" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="151" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="100.85546875" style="152" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="75"/>
+    <col min="7" max="7" width="26.109375" style="151" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="100.88671875" style="152" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.109375" style="75" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="148"/>
       <c r="B1" s="153" t="s">
         <v>161</v>
@@ -8410,7 +8408,7 @@
       <c r="H1" s="148"/>
       <c r="I1" s="148"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="148"/>
       <c r="B2" s="155" t="s">
         <v>162</v>
@@ -8422,7 +8420,7 @@
       <c r="H2" s="148"/>
       <c r="I2" s="148"/>
     </row>
-    <row r="3" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="148"/>
       <c r="B3" s="157" t="s">
         <v>163</v>
@@ -8434,7 +8432,7 @@
       <c r="H3" s="148"/>
       <c r="I3" s="148"/>
     </row>
-    <row r="4" spans="1:9" s="80" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="80" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="159" t="s">
         <v>0</v>
       </c>
@@ -8461,16 +8459,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="475" t="s">
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="446" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="446" t="s">
+      <c r="B5" s="447" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="473"/>
-      <c r="D5" s="474"/>
-      <c r="E5" s="476" t="s">
+      <c r="C5" s="449"/>
+      <c r="D5" s="445"/>
+      <c r="E5" s="448" t="s">
         <v>217</v>
       </c>
       <c r="F5" s="477" t="s">
@@ -8482,63 +8480,63 @@
       <c r="H5" s="165" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="448" t="s">
+      <c r="I5" s="478" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="475"/>
-      <c r="B6" s="446"/>
-      <c r="C6" s="473"/>
-      <c r="D6" s="474"/>
-      <c r="E6" s="476"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="446"/>
+      <c r="B6" s="447"/>
+      <c r="C6" s="449"/>
+      <c r="D6" s="445"/>
+      <c r="E6" s="448"/>
+      <c r="F6" s="473"/>
+      <c r="G6" s="473"/>
       <c r="H6" s="166" t="s">
         <v>221</v>
       </c>
-      <c r="I6" s="449"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="475"/>
-      <c r="B7" s="446"/>
-      <c r="C7" s="473"/>
-      <c r="D7" s="474"/>
-      <c r="E7" s="476"/>
-      <c r="F7" s="478" t="s">
+      <c r="I6" s="479"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="446"/>
+      <c r="B7" s="447"/>
+      <c r="C7" s="449"/>
+      <c r="D7" s="445"/>
+      <c r="E7" s="448"/>
+      <c r="F7" s="473" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="478" t="s">
+      <c r="G7" s="473" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="166" t="s">
         <v>222</v>
       </c>
-      <c r="I7" s="449"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="475"/>
-      <c r="B8" s="446"/>
-      <c r="C8" s="473"/>
-      <c r="D8" s="474"/>
-      <c r="E8" s="476"/>
-      <c r="F8" s="479"/>
-      <c r="G8" s="479"/>
+      <c r="I7" s="479"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="446"/>
+      <c r="B8" s="447"/>
+      <c r="C8" s="449"/>
+      <c r="D8" s="445"/>
+      <c r="E8" s="448"/>
+      <c r="F8" s="474"/>
+      <c r="G8" s="474"/>
       <c r="H8" s="167" t="s">
         <v>223</v>
       </c>
-      <c r="I8" s="450"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="475" t="s">
+      <c r="I8" s="480"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="446" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="446" t="s">
+      <c r="B9" s="447" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="473"/>
-      <c r="D9" s="474"/>
-      <c r="E9" s="476" t="s">
+      <c r="C9" s="449"/>
+      <c r="D9" s="445"/>
+      <c r="E9" s="448" t="s">
         <v>225</v>
       </c>
       <c r="F9" s="188" t="s">
@@ -8547,38 +8545,38 @@
       <c r="G9" s="181" t="s">
         <v>193</v>
       </c>
-      <c r="H9" s="474" t="s">
+      <c r="H9" s="445" t="s">
         <v>228</v>
       </c>
-      <c r="I9" s="474" t="s">
+      <c r="I9" s="445" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="475"/>
-      <c r="B10" s="446"/>
-      <c r="C10" s="473"/>
-      <c r="D10" s="474"/>
-      <c r="E10" s="476"/>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="446"/>
+      <c r="B10" s="447"/>
+      <c r="C10" s="449"/>
+      <c r="D10" s="445"/>
+      <c r="E10" s="448"/>
       <c r="F10" s="187" t="s">
         <v>227</v>
       </c>
       <c r="G10" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="474"/>
-      <c r="I10" s="474"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="475" t="s">
+      <c r="H10" s="445"/>
+      <c r="I10" s="445"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="446" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="446" t="s">
+      <c r="B11" s="447" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="473"/>
-      <c r="D11" s="474"/>
-      <c r="E11" s="476" t="s">
+      <c r="C11" s="449"/>
+      <c r="D11" s="445"/>
+      <c r="E11" s="448" t="s">
         <v>230</v>
       </c>
       <c r="F11" s="477" t="s">
@@ -8587,75 +8585,75 @@
       <c r="G11" s="477" t="s">
         <v>232</v>
       </c>
-      <c r="H11" s="448" t="s">
+      <c r="H11" s="478" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="448" t="s">
+      <c r="I11" s="478" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="475"/>
-      <c r="B12" s="446"/>
-      <c r="C12" s="473"/>
-      <c r="D12" s="474"/>
-      <c r="E12" s="476"/>
-      <c r="F12" s="478"/>
-      <c r="G12" s="478"/>
-      <c r="H12" s="449"/>
-      <c r="I12" s="449"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="475"/>
-      <c r="B13" s="446"/>
-      <c r="C13" s="473"/>
-      <c r="D13" s="474"/>
-      <c r="E13" s="476"/>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="446"/>
+      <c r="B12" s="447"/>
+      <c r="C12" s="449"/>
+      <c r="D12" s="445"/>
+      <c r="E12" s="448"/>
+      <c r="F12" s="473"/>
+      <c r="G12" s="473"/>
+      <c r="H12" s="479"/>
+      <c r="I12" s="479"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="446"/>
+      <c r="B13" s="447"/>
+      <c r="C13" s="449"/>
+      <c r="D13" s="445"/>
+      <c r="E13" s="448"/>
       <c r="F13" s="168" t="s">
         <v>234</v>
       </c>
       <c r="G13" s="186" t="s">
         <v>233</v>
       </c>
-      <c r="H13" s="449"/>
-      <c r="I13" s="449"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="475"/>
-      <c r="B14" s="446"/>
-      <c r="C14" s="473"/>
-      <c r="D14" s="474"/>
-      <c r="E14" s="476"/>
-      <c r="F14" s="478" t="s">
+      <c r="H13" s="479"/>
+      <c r="I13" s="479"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="446"/>
+      <c r="B14" s="447"/>
+      <c r="C14" s="449"/>
+      <c r="D14" s="445"/>
+      <c r="E14" s="448"/>
+      <c r="F14" s="473" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="478" t="s">
+      <c r="G14" s="473" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="449"/>
-      <c r="I14" s="449"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="475"/>
-      <c r="B15" s="446"/>
-      <c r="C15" s="473"/>
-      <c r="D15" s="474"/>
-      <c r="E15" s="476"/>
-      <c r="F15" s="479"/>
-      <c r="G15" s="479"/>
-      <c r="H15" s="450"/>
-      <c r="I15" s="450"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="475" t="s">
+      <c r="H14" s="479"/>
+      <c r="I14" s="479"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="446"/>
+      <c r="B15" s="447"/>
+      <c r="C15" s="449"/>
+      <c r="D15" s="445"/>
+      <c r="E15" s="448"/>
+      <c r="F15" s="474"/>
+      <c r="G15" s="474"/>
+      <c r="H15" s="480"/>
+      <c r="I15" s="480"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="446" t="s">
         <v>237</v>
       </c>
-      <c r="B16" s="446" t="s">
+      <c r="B16" s="447" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="473"/>
-      <c r="D16" s="474"/>
-      <c r="E16" s="476" t="s">
+      <c r="C16" s="449"/>
+      <c r="D16" s="445"/>
+      <c r="E16" s="448" t="s">
         <v>238</v>
       </c>
       <c r="F16" s="188" t="s">
@@ -8664,38 +8662,38 @@
       <c r="G16" s="181" t="s">
         <v>193</v>
       </c>
-      <c r="H16" s="474" t="s">
+      <c r="H16" s="445" t="s">
         <v>241</v>
       </c>
-      <c r="I16" s="474" t="s">
+      <c r="I16" s="445" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="475"/>
-      <c r="B17" s="446"/>
-      <c r="C17" s="473"/>
-      <c r="D17" s="474"/>
-      <c r="E17" s="476"/>
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="446"/>
+      <c r="B17" s="447"/>
+      <c r="C17" s="449"/>
+      <c r="D17" s="445"/>
+      <c r="E17" s="448"/>
       <c r="F17" s="187" t="s">
         <v>240</v>
       </c>
       <c r="G17" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="474"/>
-      <c r="I17" s="474"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="475" t="s">
+      <c r="H17" s="445"/>
+      <c r="I17" s="445"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="446" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="446" t="s">
+      <c r="B18" s="447" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="473"/>
-      <c r="D18" s="474"/>
-      <c r="E18" s="476" t="s">
+      <c r="C18" s="449"/>
+      <c r="D18" s="445"/>
+      <c r="E18" s="448" t="s">
         <v>243</v>
       </c>
       <c r="F18" s="477" t="s">
@@ -8704,77 +8702,77 @@
       <c r="G18" s="477" t="s">
         <v>212</v>
       </c>
-      <c r="H18" s="448" t="s">
+      <c r="H18" s="478" t="s">
         <v>248</v>
       </c>
-      <c r="I18" s="448" t="s">
+      <c r="I18" s="478" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="475"/>
-      <c r="B19" s="446"/>
-      <c r="C19" s="473"/>
-      <c r="D19" s="474"/>
-      <c r="E19" s="476"/>
-      <c r="F19" s="478"/>
-      <c r="G19" s="478"/>
-      <c r="H19" s="449"/>
-      <c r="I19" s="449"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="475"/>
-      <c r="B20" s="446"/>
-      <c r="C20" s="473"/>
-      <c r="D20" s="474"/>
-      <c r="E20" s="476"/>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="446"/>
+      <c r="B19" s="447"/>
+      <c r="C19" s="449"/>
+      <c r="D19" s="445"/>
+      <c r="E19" s="448"/>
+      <c r="F19" s="473"/>
+      <c r="G19" s="473"/>
+      <c r="H19" s="479"/>
+      <c r="I19" s="479"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="446"/>
+      <c r="B20" s="447"/>
+      <c r="C20" s="449"/>
+      <c r="D20" s="445"/>
+      <c r="E20" s="448"/>
       <c r="F20" s="168" t="s">
         <v>245</v>
       </c>
       <c r="G20" s="186" t="s">
         <v>247</v>
       </c>
-      <c r="H20" s="449" t="s">
+      <c r="H20" s="479" t="s">
         <v>249</v>
       </c>
-      <c r="I20" s="449"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="475"/>
-      <c r="B21" s="446"/>
-      <c r="C21" s="473"/>
-      <c r="D21" s="474"/>
-      <c r="E21" s="476"/>
-      <c r="F21" s="478" t="s">
+      <c r="I20" s="479"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="446"/>
+      <c r="B21" s="447"/>
+      <c r="C21" s="449"/>
+      <c r="D21" s="445"/>
+      <c r="E21" s="448"/>
+      <c r="F21" s="473" t="s">
         <v>246</v>
       </c>
-      <c r="G21" s="478" t="s">
+      <c r="G21" s="473" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="449"/>
-      <c r="I21" s="449"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="475"/>
-      <c r="B22" s="446"/>
-      <c r="C22" s="473"/>
-      <c r="D22" s="474"/>
-      <c r="E22" s="476"/>
-      <c r="F22" s="479"/>
-      <c r="G22" s="479"/>
+      <c r="H21" s="479"/>
+      <c r="I21" s="479"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="446"/>
+      <c r="B22" s="447"/>
+      <c r="C22" s="449"/>
+      <c r="D22" s="445"/>
+      <c r="E22" s="448"/>
+      <c r="F22" s="474"/>
+      <c r="G22" s="474"/>
       <c r="H22" s="189"/>
-      <c r="I22" s="450"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="475" t="s">
+      <c r="I22" s="480"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="446" t="s">
         <v>250</v>
       </c>
-      <c r="B23" s="446" t="s">
+      <c r="B23" s="447" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="473"/>
-      <c r="D23" s="474"/>
-      <c r="E23" s="476" t="s">
+      <c r="C23" s="449"/>
+      <c r="D23" s="445"/>
+      <c r="E23" s="448" t="s">
         <v>251</v>
       </c>
       <c r="F23" s="188" t="s">
@@ -8783,29 +8781,29 @@
       <c r="G23" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="H23" s="474" t="s">
+      <c r="H23" s="445" t="s">
         <v>254</v>
       </c>
-      <c r="I23" s="474" t="s">
+      <c r="I23" s="445" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="475"/>
-      <c r="B24" s="446"/>
-      <c r="C24" s="473"/>
-      <c r="D24" s="474"/>
-      <c r="E24" s="476"/>
+    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="446"/>
+      <c r="B24" s="447"/>
+      <c r="C24" s="449"/>
+      <c r="D24" s="445"/>
+      <c r="E24" s="448"/>
       <c r="F24" s="187" t="s">
         <v>253</v>
       </c>
       <c r="G24" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="474"/>
-      <c r="I24" s="474"/>
-    </row>
-    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="H24" s="445"/>
+      <c r="I24" s="445"/>
+    </row>
+    <row r="25" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="183" t="s">
         <v>255</v>
       </c>
@@ -8830,16 +8828,16 @@
         <v>560</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="480" t="s">
+    <row r="26" spans="1:9" s="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="475" t="s">
         <v>285</v>
       </c>
-      <c r="B26" s="480" t="s">
+      <c r="B26" s="475" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="481"/>
-      <c r="D26" s="481"/>
-      <c r="E26" s="481" t="s">
+      <c r="C26" s="476"/>
+      <c r="D26" s="476"/>
+      <c r="E26" s="476" t="s">
         <v>277</v>
       </c>
       <c r="F26" s="234" t="s">
@@ -8853,12 +8851,12 @@
       </c>
       <c r="I26" s="235"/>
     </row>
-    <row r="27" spans="1:9" s="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="480"/>
-      <c r="B27" s="480"/>
-      <c r="C27" s="481"/>
-      <c r="D27" s="481"/>
-      <c r="E27" s="481"/>
+    <row r="27" spans="1:9" s="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="475"/>
+      <c r="B27" s="475"/>
+      <c r="C27" s="476"/>
+      <c r="D27" s="476"/>
+      <c r="E27" s="476"/>
       <c r="F27" s="234" t="s">
         <v>279</v>
       </c>
@@ -8870,12 +8868,12 @@
       </c>
       <c r="I27" s="234"/>
     </row>
-    <row r="28" spans="1:9" s="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="480"/>
-      <c r="B28" s="480"/>
-      <c r="C28" s="481"/>
-      <c r="D28" s="481"/>
-      <c r="E28" s="481"/>
+    <row r="28" spans="1:9" s="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="475"/>
+      <c r="B28" s="475"/>
+      <c r="C28" s="476"/>
+      <c r="D28" s="476"/>
+      <c r="E28" s="476"/>
       <c r="F28" s="234" t="s">
         <v>280</v>
       </c>
@@ -8887,18 +8885,18 @@
       </c>
       <c r="I28" s="236"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="485" t="s">
+    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="469" t="s">
         <v>294</v>
       </c>
-      <c r="B29" s="474" t="s">
+      <c r="B29" s="445" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="473"/>
-      <c r="D29" s="474" t="s">
+      <c r="C29" s="449"/>
+      <c r="D29" s="445" t="s">
         <v>308</v>
       </c>
-      <c r="E29" s="486" t="s">
+      <c r="E29" s="470" t="s">
         <v>286</v>
       </c>
       <c r="F29" s="181" t="s">
@@ -8907,70 +8905,70 @@
       <c r="G29" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="H29" s="474" t="s">
+      <c r="H29" s="445" t="s">
         <v>292</v>
       </c>
-      <c r="I29" s="474" t="s">
+      <c r="I29" s="445" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="485"/>
-      <c r="B30" s="474"/>
-      <c r="C30" s="473"/>
-      <c r="D30" s="474"/>
-      <c r="E30" s="487"/>
+    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="469"/>
+      <c r="B30" s="445"/>
+      <c r="C30" s="449"/>
+      <c r="D30" s="445"/>
+      <c r="E30" s="471"/>
       <c r="F30" s="182" t="s">
         <v>290</v>
       </c>
       <c r="G30" s="171" t="s">
         <v>247</v>
       </c>
-      <c r="H30" s="474"/>
-      <c r="I30" s="474"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="485"/>
-      <c r="B31" s="474"/>
-      <c r="C31" s="473"/>
-      <c r="D31" s="474"/>
-      <c r="E31" s="487"/>
+      <c r="H30" s="445"/>
+      <c r="I30" s="445"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="469"/>
+      <c r="B31" s="445"/>
+      <c r="C31" s="449"/>
+      <c r="D31" s="445"/>
+      <c r="E31" s="471"/>
       <c r="F31" s="182" t="s">
         <v>291</v>
       </c>
       <c r="G31" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="474"/>
-      <c r="I31" s="474"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="485"/>
-      <c r="B32" s="474"/>
-      <c r="C32" s="473"/>
-      <c r="D32" s="474"/>
-      <c r="E32" s="488"/>
+      <c r="H31" s="445"/>
+      <c r="I31" s="445"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="469"/>
+      <c r="B32" s="445"/>
+      <c r="C32" s="449"/>
+      <c r="D32" s="445"/>
+      <c r="E32" s="472"/>
       <c r="F32" s="189" t="s">
         <v>288</v>
       </c>
       <c r="G32" s="172" t="s">
         <v>289</v>
       </c>
-      <c r="H32" s="474"/>
-      <c r="I32" s="474"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="430" t="s">
+      <c r="H32" s="445"/>
+      <c r="I32" s="445"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="431" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="466" t="s">
+      <c r="B33" s="455" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="457"/>
-      <c r="D33" s="447" t="s">
+      <c r="C33" s="458"/>
+      <c r="D33" s="464" t="s">
         <v>308</v>
       </c>
-      <c r="E33" s="447" t="s">
+      <c r="E33" s="464" t="s">
         <v>286</v>
       </c>
       <c r="F33" s="149" t="s">
@@ -8979,53 +8977,53 @@
       <c r="G33" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="H33" s="482" t="s">
+      <c r="H33" s="450" t="s">
         <v>296</v>
       </c>
-      <c r="I33" s="463"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="430"/>
-      <c r="B34" s="467"/>
-      <c r="C34" s="458"/>
-      <c r="D34" s="447"/>
-      <c r="E34" s="447"/>
+      <c r="I33" s="466"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="431"/>
+      <c r="B34" s="456"/>
+      <c r="C34" s="459"/>
+      <c r="D34" s="464"/>
+      <c r="E34" s="464"/>
       <c r="F34" s="173" t="s">
         <v>291</v>
       </c>
       <c r="G34" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="483"/>
-      <c r="I34" s="464"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="430"/>
-      <c r="B35" s="468"/>
-      <c r="C35" s="459"/>
-      <c r="D35" s="447"/>
-      <c r="E35" s="447"/>
+      <c r="H34" s="451"/>
+      <c r="I34" s="467"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="431"/>
+      <c r="B35" s="457"/>
+      <c r="C35" s="460"/>
+      <c r="D35" s="464"/>
+      <c r="E35" s="464"/>
       <c r="F35" s="174" t="s">
         <v>288</v>
       </c>
       <c r="G35" s="189" t="s">
         <v>289</v>
       </c>
-      <c r="H35" s="484"/>
-      <c r="I35" s="465"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="430" t="s">
+      <c r="H35" s="452"/>
+      <c r="I35" s="468"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="431" t="s">
         <v>297</v>
       </c>
-      <c r="B36" s="466" t="s">
+      <c r="B36" s="455" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="457"/>
-      <c r="D36" s="447" t="s">
+      <c r="C36" s="458"/>
+      <c r="D36" s="464" t="s">
         <v>308</v>
       </c>
-      <c r="E36" s="447" t="s">
+      <c r="E36" s="464" t="s">
         <v>286</v>
       </c>
       <c r="F36" s="145" t="s">
@@ -9034,53 +9032,53 @@
       <c r="G36" s="175" t="s">
         <v>212</v>
       </c>
-      <c r="H36" s="494" t="s">
+      <c r="H36" s="465" t="s">
         <v>298</v>
       </c>
-      <c r="I36" s="494"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="430"/>
-      <c r="B37" s="467"/>
-      <c r="C37" s="458"/>
-      <c r="D37" s="447"/>
-      <c r="E37" s="447"/>
+      <c r="I36" s="465"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="431"/>
+      <c r="B37" s="456"/>
+      <c r="C37" s="459"/>
+      <c r="D37" s="464"/>
+      <c r="E37" s="464"/>
       <c r="F37" s="146" t="s">
         <v>291</v>
       </c>
       <c r="G37" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="494"/>
-      <c r="I37" s="494"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="430"/>
-      <c r="B38" s="468"/>
-      <c r="C38" s="459"/>
-      <c r="D38" s="447"/>
-      <c r="E38" s="447"/>
+      <c r="H37" s="465"/>
+      <c r="I37" s="465"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="431"/>
+      <c r="B38" s="457"/>
+      <c r="C38" s="460"/>
+      <c r="D38" s="464"/>
+      <c r="E38" s="464"/>
       <c r="F38" s="147" t="s">
         <v>288</v>
       </c>
       <c r="G38" s="142" t="s">
         <v>289</v>
       </c>
-      <c r="H38" s="494"/>
-      <c r="I38" s="494"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="465"/>
+      <c r="I38" s="465"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="B39" s="466" t="s">
+      <c r="B39" s="455" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="473"/>
-      <c r="D39" s="447" t="s">
+      <c r="C39" s="449"/>
+      <c r="D39" s="464" t="s">
         <v>306</v>
       </c>
-      <c r="E39" s="491" t="s">
+      <c r="E39" s="461" t="s">
         <v>300</v>
       </c>
       <c r="F39" s="176" t="s">
@@ -9092,52 +9090,52 @@
       <c r="H39" s="177" t="s">
         <v>304</v>
       </c>
-      <c r="I39" s="482"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="489" t="s">
+      <c r="I39" s="450"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="453" t="s">
         <v>307</v>
       </c>
-      <c r="B40" s="467"/>
-      <c r="C40" s="473"/>
-      <c r="D40" s="447"/>
-      <c r="E40" s="492"/>
+      <c r="B40" s="456"/>
+      <c r="C40" s="449"/>
+      <c r="D40" s="464"/>
+      <c r="E40" s="462"/>
       <c r="F40" s="178" t="s">
         <v>302</v>
       </c>
       <c r="G40" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="483" t="s">
+      <c r="H40" s="451" t="s">
         <v>305</v>
       </c>
-      <c r="I40" s="483"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="490"/>
-      <c r="B41" s="468"/>
-      <c r="C41" s="473"/>
-      <c r="D41" s="447"/>
-      <c r="E41" s="493"/>
+      <c r="I40" s="451"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="454"/>
+      <c r="B41" s="457"/>
+      <c r="C41" s="449"/>
+      <c r="D41" s="464"/>
+      <c r="E41" s="463"/>
       <c r="F41" s="179" t="s">
         <v>303</v>
       </c>
       <c r="G41" s="142" t="s">
         <v>289</v>
       </c>
-      <c r="H41" s="484"/>
-      <c r="I41" s="484"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="445" t="s">
+      <c r="H41" s="452"/>
+      <c r="I41" s="452"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="484" t="s">
         <v>285</v>
       </c>
-      <c r="B42" s="446" t="s">
+      <c r="B42" s="447" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="473"/>
-      <c r="D42" s="474"/>
-      <c r="E42" s="474" t="s">
+      <c r="C42" s="449"/>
+      <c r="D42" s="445"/>
+      <c r="E42" s="445" t="s">
         <v>277</v>
       </c>
       <c r="F42" s="169" t="s">
@@ -9149,16 +9147,16 @@
       <c r="H42" s="231" t="s">
         <v>282</v>
       </c>
-      <c r="I42" s="470" t="s">
+      <c r="I42" s="481" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="445"/>
-      <c r="B43" s="446"/>
-      <c r="C43" s="473"/>
-      <c r="D43" s="474"/>
-      <c r="E43" s="474"/>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="484"/>
+      <c r="B43" s="447"/>
+      <c r="C43" s="449"/>
+      <c r="D43" s="445"/>
+      <c r="E43" s="445"/>
       <c r="F43" s="169" t="s">
         <v>279</v>
       </c>
@@ -9168,14 +9166,14 @@
       <c r="H43" s="232" t="s">
         <v>283</v>
       </c>
-      <c r="I43" s="471"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="445"/>
-      <c r="B44" s="446"/>
-      <c r="C44" s="473"/>
-      <c r="D44" s="474"/>
-      <c r="E44" s="474"/>
+      <c r="I43" s="482"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="484"/>
+      <c r="B44" s="447"/>
+      <c r="C44" s="449"/>
+      <c r="D44" s="445"/>
+      <c r="E44" s="445"/>
       <c r="F44" s="169" t="s">
         <v>280</v>
       </c>
@@ -9185,20 +9183,20 @@
       <c r="H44" s="237" t="s">
         <v>358</v>
       </c>
-      <c r="I44" s="472"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="475" t="s">
+      <c r="I44" s="483"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="446" t="s">
         <v>366</v>
       </c>
-      <c r="B45" s="446" t="s">
+      <c r="B45" s="447" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="473"/>
-      <c r="D45" s="474" t="s">
+      <c r="C45" s="449"/>
+      <c r="D45" s="445" t="s">
         <v>367</v>
       </c>
-      <c r="E45" s="476" t="s">
+      <c r="E45" s="448" t="s">
         <v>368</v>
       </c>
       <c r="F45" s="240" t="s">
@@ -9207,38 +9205,38 @@
       <c r="G45" s="238" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="474" t="s">
+      <c r="H45" s="445" t="s">
         <v>371</v>
       </c>
-      <c r="I45" s="474"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="475"/>
-      <c r="B46" s="446"/>
-      <c r="C46" s="473"/>
-      <c r="D46" s="474"/>
-      <c r="E46" s="476"/>
+      <c r="I45" s="445"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="446"/>
+      <c r="B46" s="447"/>
+      <c r="C46" s="449"/>
+      <c r="D46" s="445"/>
+      <c r="E46" s="448"/>
       <c r="F46" s="239" t="s">
         <v>370</v>
       </c>
       <c r="G46" s="238" t="s">
         <v>281</v>
       </c>
-      <c r="H46" s="474"/>
-      <c r="I46" s="474"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A47" s="475" t="s">
+      <c r="H46" s="445"/>
+      <c r="I46" s="445"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A47" s="446" t="s">
         <v>375</v>
       </c>
-      <c r="B47" s="446" t="s">
+      <c r="B47" s="447" t="s">
         <v>203</v>
       </c>
-      <c r="C47" s="495"/>
-      <c r="D47" s="474" t="s">
+      <c r="C47" s="449"/>
+      <c r="D47" s="445" t="s">
         <v>367</v>
       </c>
-      <c r="E47" s="476" t="s">
+      <c r="E47" s="448" t="s">
         <v>372</v>
       </c>
       <c r="F47" s="230" t="s">
@@ -9247,38 +9245,38 @@
       <c r="G47" s="238" t="s">
         <v>103</v>
       </c>
-      <c r="H47" s="474" t="s">
+      <c r="H47" s="445" t="s">
         <v>376</v>
       </c>
-      <c r="I47" s="474"/>
-    </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="475"/>
-      <c r="B48" s="446"/>
-      <c r="C48" s="495"/>
-      <c r="D48" s="474"/>
-      <c r="E48" s="476"/>
+      <c r="I47" s="445"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="446"/>
+      <c r="B48" s="447"/>
+      <c r="C48" s="449"/>
+      <c r="D48" s="445"/>
+      <c r="E48" s="448"/>
       <c r="F48" s="239" t="s">
         <v>374</v>
       </c>
       <c r="G48" s="238" t="s">
         <v>281</v>
       </c>
-      <c r="H48" s="474"/>
-      <c r="I48" s="474"/>
-    </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="475" t="s">
+      <c r="H48" s="445"/>
+      <c r="I48" s="445"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="446" t="s">
         <v>381</v>
       </c>
-      <c r="B49" s="446" t="s">
+      <c r="B49" s="447" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="495"/>
-      <c r="D49" s="474" t="s">
+      <c r="C49" s="449"/>
+      <c r="D49" s="445" t="s">
         <v>367</v>
       </c>
-      <c r="E49" s="476" t="s">
+      <c r="E49" s="448" t="s">
         <v>377</v>
       </c>
       <c r="F49" s="240" t="s">
@@ -9287,38 +9285,38 @@
       <c r="G49" s="238" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="474" t="s">
+      <c r="H49" s="445" t="s">
         <v>380</v>
       </c>
-      <c r="I49" s="474"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="475"/>
-      <c r="B50" s="446"/>
-      <c r="C50" s="495"/>
-      <c r="D50" s="474"/>
-      <c r="E50" s="476"/>
+      <c r="I49" s="445"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="446"/>
+      <c r="B50" s="447"/>
+      <c r="C50" s="449"/>
+      <c r="D50" s="445"/>
+      <c r="E50" s="448"/>
       <c r="F50" s="239" t="s">
         <v>379</v>
       </c>
       <c r="G50" s="238" t="s">
         <v>281</v>
       </c>
-      <c r="H50" s="474"/>
-      <c r="I50" s="474"/>
-    </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="475" t="s">
+      <c r="H50" s="445"/>
+      <c r="I50" s="445"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="446" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="446" t="s">
+      <c r="B51" s="447" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="495"/>
-      <c r="D51" s="474" t="s">
+      <c r="C51" s="449"/>
+      <c r="D51" s="445" t="s">
         <v>367</v>
       </c>
-      <c r="E51" s="476" t="s">
+      <c r="E51" s="448" t="s">
         <v>382</v>
       </c>
       <c r="F51" s="240" t="s">
@@ -9327,38 +9325,38 @@
       <c r="G51" s="238" t="s">
         <v>103</v>
       </c>
-      <c r="H51" s="474" t="s">
+      <c r="H51" s="445" t="s">
         <v>386</v>
       </c>
-      <c r="I51" s="474"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="475"/>
-      <c r="B52" s="446"/>
-      <c r="C52" s="495"/>
-      <c r="D52" s="474"/>
-      <c r="E52" s="476"/>
+      <c r="I51" s="445"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="446"/>
+      <c r="B52" s="447"/>
+      <c r="C52" s="449"/>
+      <c r="D52" s="445"/>
+      <c r="E52" s="448"/>
       <c r="F52" s="239" t="s">
         <v>384</v>
       </c>
       <c r="G52" s="238" t="s">
         <v>385</v>
       </c>
-      <c r="H52" s="474"/>
-      <c r="I52" s="474"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="430" t="s">
+      <c r="H52" s="445"/>
+      <c r="I52" s="445"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="431" t="s">
         <v>295</v>
       </c>
-      <c r="B53" s="454" t="s">
+      <c r="B53" s="488" t="s">
         <v>411</v>
       </c>
-      <c r="C53" s="457"/>
-      <c r="D53" s="447" t="s">
+      <c r="C53" s="458"/>
+      <c r="D53" s="464" t="s">
         <v>412</v>
       </c>
-      <c r="E53" s="447" t="s">
+      <c r="E53" s="464" t="s">
         <v>286</v>
       </c>
       <c r="F53" s="269" t="s">
@@ -9367,55 +9365,55 @@
       <c r="G53" s="269" t="s">
         <v>212</v>
       </c>
-      <c r="H53" s="460" t="s">
+      <c r="H53" s="491" t="s">
         <v>413</v>
       </c>
-      <c r="I53" s="463" t="s">
+      <c r="I53" s="466" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="430"/>
-      <c r="B54" s="455"/>
-      <c r="C54" s="458"/>
-      <c r="D54" s="447"/>
-      <c r="E54" s="447"/>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="431"/>
+      <c r="B54" s="489"/>
+      <c r="C54" s="459"/>
+      <c r="D54" s="464"/>
+      <c r="E54" s="464"/>
       <c r="F54" s="173" t="s">
         <v>291</v>
       </c>
       <c r="G54" s="260" t="s">
         <v>103</v>
       </c>
-      <c r="H54" s="461"/>
-      <c r="I54" s="464"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="430"/>
-      <c r="B55" s="456"/>
-      <c r="C55" s="459"/>
-      <c r="D55" s="447"/>
-      <c r="E55" s="447"/>
+      <c r="H54" s="492"/>
+      <c r="I54" s="467"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="431"/>
+      <c r="B55" s="490"/>
+      <c r="C55" s="460"/>
+      <c r="D55" s="464"/>
+      <c r="E55" s="464"/>
       <c r="F55" s="174" t="s">
         <v>288</v>
       </c>
       <c r="G55" s="269" t="s">
         <v>289</v>
       </c>
-      <c r="H55" s="462"/>
-      <c r="I55" s="465"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="430" t="s">
+      <c r="H55" s="493"/>
+      <c r="I55" s="468"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="431" t="s">
         <v>297</v>
       </c>
-      <c r="B56" s="466" t="s">
+      <c r="B56" s="455" t="s">
         <v>411</v>
       </c>
-      <c r="C56" s="457"/>
-      <c r="D56" s="447" t="s">
+      <c r="C56" s="458"/>
+      <c r="D56" s="464" t="s">
         <v>412</v>
       </c>
-      <c r="E56" s="447" t="s">
+      <c r="E56" s="464" t="s">
         <v>286</v>
       </c>
       <c r="F56" s="145" t="s">
@@ -9424,55 +9422,55 @@
       <c r="G56" s="175" t="s">
         <v>212</v>
       </c>
-      <c r="H56" s="469" t="s">
+      <c r="H56" s="494" t="s">
         <v>415</v>
       </c>
-      <c r="I56" s="463" t="s">
+      <c r="I56" s="466" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="430"/>
-      <c r="B57" s="467"/>
-      <c r="C57" s="458"/>
-      <c r="D57" s="447"/>
-      <c r="E57" s="447"/>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="431"/>
+      <c r="B57" s="456"/>
+      <c r="C57" s="459"/>
+      <c r="D57" s="464"/>
+      <c r="E57" s="464"/>
       <c r="F57" s="146" t="s">
         <v>291</v>
       </c>
       <c r="G57" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="H57" s="469"/>
-      <c r="I57" s="464"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="430"/>
-      <c r="B58" s="468"/>
-      <c r="C58" s="459"/>
-      <c r="D58" s="447"/>
-      <c r="E58" s="447"/>
+      <c r="H57" s="494"/>
+      <c r="I57" s="467"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="431"/>
+      <c r="B58" s="457"/>
+      <c r="C58" s="460"/>
+      <c r="D58" s="464"/>
+      <c r="E58" s="464"/>
       <c r="F58" s="147" t="s">
         <v>288</v>
       </c>
       <c r="G58" s="142" t="s">
         <v>289</v>
       </c>
-      <c r="H58" s="469"/>
-      <c r="I58" s="465"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="445" t="s">
+      <c r="H58" s="494"/>
+      <c r="I58" s="468"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="484" t="s">
         <v>285</v>
       </c>
-      <c r="B59" s="446" t="s">
+      <c r="B59" s="447" t="s">
         <v>421</v>
       </c>
-      <c r="C59" s="473"/>
-      <c r="D59" s="447" t="s">
+      <c r="C59" s="449"/>
+      <c r="D59" s="464" t="s">
         <v>412</v>
       </c>
-      <c r="E59" s="448" t="s">
+      <c r="E59" s="478" t="s">
         <v>417</v>
       </c>
       <c r="F59" s="270" t="s">
@@ -9484,16 +9482,16 @@
       <c r="H59" s="259" t="s">
         <v>282</v>
       </c>
-      <c r="I59" s="451" t="s">
+      <c r="I59" s="485" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="445"/>
-      <c r="B60" s="446"/>
-      <c r="C60" s="473"/>
-      <c r="D60" s="447"/>
-      <c r="E60" s="449"/>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="484"/>
+      <c r="B60" s="447"/>
+      <c r="C60" s="449"/>
+      <c r="D60" s="464"/>
+      <c r="E60" s="479"/>
       <c r="F60" s="169" t="s">
         <v>418</v>
       </c>
@@ -9503,14 +9501,14 @@
       <c r="H60" s="260" t="s">
         <v>283</v>
       </c>
-      <c r="I60" s="452"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="445"/>
-      <c r="B61" s="446"/>
-      <c r="C61" s="473"/>
-      <c r="D61" s="447"/>
-      <c r="E61" s="450"/>
+      <c r="I60" s="486"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="484"/>
+      <c r="B61" s="447"/>
+      <c r="C61" s="449"/>
+      <c r="D61" s="464"/>
+      <c r="E61" s="480"/>
       <c r="F61" s="169" t="s">
         <v>419</v>
       </c>
@@ -9520,108 +9518,31 @@
       <c r="H61" s="237" t="s">
         <v>358</v>
       </c>
-      <c r="I61" s="453"/>
+      <c r="I61" s="487"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:I4"/>
+  <autoFilter ref="A4:I4" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="141">
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
     <mergeCell ref="I42:I44"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="B42:B44"/>
@@ -9646,26 +9567,103 @@
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9673,20 +9671,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A55" sqref="A1:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="287" t="s">
         <v>492</v>
       </c>
@@ -9747,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -9805,7 +9803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>498</v>
       </c>
@@ -9863,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>499</v>
       </c>
@@ -9921,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>500</v>
       </c>
@@ -9979,7 +9977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
         <v>501</v>
       </c>
@@ -10040,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="75" t="s">
         <v>502</v>
       </c>
@@ -10098,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="75" t="s">
         <v>503</v>
       </c>
@@ -10156,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="75" t="s">
         <v>504</v>
       </c>
@@ -10214,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="75" t="s">
         <v>505</v>
       </c>
@@ -10272,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="75" t="s">
         <v>506</v>
       </c>
@@ -10333,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="75" t="s">
         <v>507</v>
       </c>
@@ -10391,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="75" t="s">
         <v>508</v>
       </c>
@@ -10449,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="75" t="s">
         <v>509</v>
       </c>
@@ -10507,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75" t="s">
         <v>510</v>
       </c>
@@ -10565,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="75" t="s">
         <v>511</v>
       </c>
@@ -10623,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="75" t="s">
         <v>512</v>
       </c>
@@ -10681,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="75" t="s">
         <v>513</v>
       </c>
@@ -10739,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="75" t="s">
         <v>514</v>
       </c>
@@ -10797,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="75" t="s">
         <v>515</v>
       </c>
@@ -10858,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="75" t="s">
         <v>516</v>
       </c>
@@ -10916,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="75" t="s">
         <v>517</v>
       </c>
@@ -10974,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="75" t="s">
         <v>518</v>
       </c>
@@ -11032,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="75" t="s">
         <v>519</v>
       </c>
@@ -11090,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="75" t="s">
         <v>520</v>
       </c>
@@ -11148,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="75" t="s">
         <v>521</v>
       </c>
@@ -11206,7 +11204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="75" t="s">
         <v>522</v>
       </c>
@@ -11264,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="75" t="s">
         <v>523</v>
       </c>
@@ -11325,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="75" t="s">
         <v>524</v>
       </c>
@@ -11383,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="75" t="s">
         <v>525</v>
       </c>
@@ -11441,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="75" t="s">
         <v>526</v>
       </c>
@@ -11499,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="75" t="s">
         <v>527</v>
       </c>
@@ -11557,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="75" t="s">
         <v>528</v>
       </c>
@@ -11615,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="75" t="s">
         <v>529</v>
       </c>
@@ -11676,7 +11674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="75" t="s">
         <v>530</v>
       </c>
@@ -11734,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="75" t="s">
         <v>531</v>
       </c>
@@ -11792,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="75" t="s">
         <v>532</v>
       </c>
@@ -11850,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="75" t="s">
         <v>533</v>
       </c>
@@ -11908,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="75" t="s">
         <v>534</v>
       </c>
@@ -11966,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="75" t="s">
         <v>535</v>
       </c>
@@ -12024,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="75" t="s">
         <v>536</v>
       </c>
@@ -12082,7 +12080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="75" t="s">
         <v>537</v>
       </c>
@@ -12143,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="75" t="s">
         <v>538</v>
       </c>
@@ -12201,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>539</v>
       </c>
@@ -12259,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>540</v>
       </c>
@@ -12317,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>541</v>
       </c>
@@ -12375,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>542</v>
       </c>
@@ -12436,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>543</v>
       </c>
@@ -12494,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>544</v>
       </c>
@@ -12552,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>545</v>
       </c>
@@ -12610,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>546</v>
       </c>
@@ -12668,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>547</v>
       </c>
@@ -12726,7 +12724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>548</v>
       </c>
@@ -12784,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>549</v>
       </c>
@@ -12842,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>550</v>
       </c>
@@ -12907,22 +12905,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="G10" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="97.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="116" t="s">
         <v>3</v>
       </c>
@@ -12934,8 +12932,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="389" t="s">
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="331" t="s">
         <v>277</v>
       </c>
       <c r="B2" s="143" t="s">
@@ -12948,8 +12946,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="389"/>
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="331"/>
       <c r="B3" s="139" t="s">
         <v>279</v>
       </c>
@@ -12960,8 +12958,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="331"/>
       <c r="B4" s="144" t="s">
         <v>280</v>
       </c>
@@ -12972,8 +12970,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J12" s="279" t="s">
         <v>457</v>
       </c>
@@ -12999,7 +12997,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J13" s="281" t="s">
         <v>465</v>
       </c>
@@ -13025,7 +13023,7 @@
         <v>104222</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J14" s="281" t="s">
         <v>465</v>
       </c>
@@ -13051,7 +13049,7 @@
         <v>104222</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>266</v>
       </c>
@@ -13086,7 +13084,7 @@
         <v>104222</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>259</v>
       </c>
@@ -13121,7 +13119,7 @@
         <v>104222</v>
       </c>
     </row>
-    <row r="17" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>267</v>
       </c>
@@ -13156,7 +13154,7 @@
         <v>104237</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>268</v>
       </c>
@@ -13191,7 +13189,7 @@
         <v>104237</v>
       </c>
     </row>
-    <row r="19" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>269</v>
       </c>
@@ -13226,7 +13224,7 @@
         <v>104237</v>
       </c>
     </row>
-    <row r="20" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>270</v>
       </c>
@@ -13261,7 +13259,7 @@
         <v>104237</v>
       </c>
     </row>
-    <row r="21" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>259</v>
       </c>
@@ -13296,7 +13294,7 @@
         <v>104237</v>
       </c>
     </row>
-    <row r="22" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>262</v>
       </c>
@@ -13329,7 +13327,7 @@
       </c>
       <c r="Q22" s="285"/>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>263</v>
       </c>
@@ -13340,7 +13338,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>264</v>
       </c>
@@ -13351,7 +13349,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>35</v>
       </c>
@@ -13362,7 +13360,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>36</v>
       </c>
@@ -13373,17 +13371,17 @@
         <v>456</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>28</v>
       </c>
